--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB020F-FB14-408C-A96F-2BF5053A6D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849DF07E-0E4B-41B7-8012-B5DC88707F7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,19 +103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,3498 +430,6228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A207" sqref="A205:A249"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>38</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>57</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>100</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>130</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>191</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>61</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>212</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>21</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>285</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>73</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>423</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>138</v>
       </c>
       <c r="D21" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>653</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>230</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>949</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>296</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>1209</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>260</v>
       </c>
       <c r="D24" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>1412</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>203</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>1784</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>372</v>
       </c>
       <c r="D26" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>2281</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>497</v>
       </c>
       <c r="D27" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>2876</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>595</v>
       </c>
       <c r="D28" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>3661</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>785</v>
       </c>
       <c r="D29" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>4499</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>838</v>
       </c>
       <c r="D30" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>5423</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>924</v>
       </c>
       <c r="D31" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>6633</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>1210</v>
       </c>
       <c r="D32" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>7730</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>1097</v>
       </c>
       <c r="D33" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>9134</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>1404</v>
       </c>
       <c r="D34" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>10995</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>1861</v>
       </c>
       <c r="D35" s="1">
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>12612</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>1617</v>
       </c>
       <c r="D36" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>14459</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>1847</v>
       </c>
       <c r="D37" s="1">
         <v>562</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>16018</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>1559</v>
       </c>
       <c r="D38" s="1">
         <v>674</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>19856</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>3838</v>
       </c>
       <c r="D39" s="1">
         <v>860</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>22304</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>2448</v>
       </c>
       <c r="D40" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>25233</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>2929</v>
       </c>
       <c r="D41" s="1">
         <v>1331</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>29155</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>3922</v>
       </c>
       <c r="D42" s="1">
         <v>1696</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>32964</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>3809</v>
       </c>
       <c r="D43" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>37575</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>4611</v>
       </c>
       <c r="D44" s="1">
         <v>2314</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>40174</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>2599</v>
       </c>
       <c r="D45" s="1">
         <v>2606</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>44550</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>4376</v>
       </c>
       <c r="D46" s="1">
         <v>3024</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>52128</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>7578</v>
       </c>
       <c r="D47" s="1">
         <v>3522</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>56989</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>4861</v>
       </c>
       <c r="D48" s="1">
         <v>4030</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>59105</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>2116</v>
       </c>
       <c r="D49" s="1">
         <v>5384</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>64338</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>5233</v>
       </c>
       <c r="D50" s="1">
         <v>6503</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>68605</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>4267</v>
       </c>
       <c r="D51" s="1">
         <v>7555</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>70478</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>1873</v>
       </c>
       <c r="D52" s="1">
         <v>8072</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>74390</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>3912</v>
       </c>
       <c r="D53" s="1">
         <v>8904</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>78167</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>3777</v>
       </c>
       <c r="D54" s="1">
         <v>10320</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>82048</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>3881</v>
       </c>
       <c r="D55" s="1">
         <v>10860</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>86334</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>4286</v>
       </c>
       <c r="D56" s="1">
         <v>12199</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>90676</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>4342</v>
       </c>
       <c r="D57" s="1">
         <v>13185</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>93790</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>3114</v>
       </c>
       <c r="D58" s="1">
         <v>13819</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>95403</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>1613</v>
       </c>
       <c r="D59" s="1">
         <v>14380</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>98076</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>2673</v>
       </c>
       <c r="D60" s="1">
         <v>14954</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>103573</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>5497</v>
       </c>
       <c r="D61" s="1">
         <v>15715</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>106206</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>2633</v>
       </c>
       <c r="D62" s="1">
         <v>17152</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>108847</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>2641</v>
       </c>
       <c r="D63" s="1">
         <v>17904</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>109252</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>405</v>
       </c>
       <c r="D64" s="1">
         <v>18664</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>111821</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>2569</v>
       </c>
       <c r="D65" s="1">
         <v>19305</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>112606</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>785</v>
       </c>
       <c r="D66" s="1">
         <v>19700</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>114657</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>2051</v>
       </c>
       <c r="D67" s="1">
         <v>20246</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>117324</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>2667</v>
       </c>
       <c r="D68" s="1">
         <v>20776</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>119151</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>1827</v>
       </c>
       <c r="D69" s="1">
         <v>21319</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>120804</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>1653</v>
       </c>
       <c r="D70" s="1">
         <v>21834</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>122577</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>1773</v>
       </c>
       <c r="D71" s="1">
         <v>22223</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>124114</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>1537</v>
       </c>
       <c r="D72" s="1">
         <v>22592</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>124575</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>461</v>
       </c>
       <c r="D73" s="1">
         <v>22834</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>128339</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <v>3764</v>
       </c>
       <c r="D74" s="1">
         <v>23270</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>129859</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <v>1520</v>
       </c>
       <c r="D75" s="1">
         <v>23637</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>128442</v>
       </c>
-      <c r="C76" s="3">
-        <v>1417</v>
+      <c r="C76" s="4">
+        <v>-1417</v>
       </c>
       <c r="D76" s="1">
         <v>24063</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>129581</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>1139</v>
       </c>
       <c r="D77" s="1">
         <v>24352</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>130185</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>604</v>
       </c>
       <c r="D78" s="1">
         <v>24570</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>130979</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>794</v>
       </c>
       <c r="D79" s="1">
         <v>24736</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>131287</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <v>308</v>
       </c>
       <c r="D80" s="1">
         <v>24871</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>131863</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>576</v>
       </c>
       <c r="D81" s="1">
         <v>25177</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>132967</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>1104</v>
       </c>
       <c r="D82" s="1">
         <v>25507</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>137150</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>4183</v>
       </c>
       <c r="D83" s="1">
         <v>25785</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>137779</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>629</v>
       </c>
       <c r="D84" s="1">
         <v>25963</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>138421</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>642</v>
       </c>
       <c r="D85" s="1">
         <v>26206</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>138854</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>433</v>
       </c>
       <c r="D86" s="1">
         <v>26286</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>139063</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>209</v>
       </c>
       <c r="D87" s="1">
         <v>26356</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>139519</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>456</v>
       </c>
       <c r="D88" s="1">
         <v>26619</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>140227</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>708</v>
       </c>
       <c r="D89" s="1">
         <v>26967</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>140734</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>507</v>
       </c>
       <c r="D90" s="1">
         <v>27050</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>141356</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>622</v>
       </c>
       <c r="D91" s="1">
         <v>27401</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>141919</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>563</v>
       </c>
       <c r="D92" s="1">
         <v>27505</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>142291</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>372</v>
       </c>
       <c r="D93" s="1">
         <v>27601</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>142411</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>120</v>
       </c>
       <c r="D94" s="1">
-        <v>28083</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>142903</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>492</v>
       </c>
       <c r="D95" s="1">
-        <v>28214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>143427</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>524</v>
       </c>
       <c r="D96" s="1">
         <v>27997</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>143845</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>418</v>
       </c>
       <c r="D97" s="1">
         <v>28107</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>144163</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>318</v>
       </c>
       <c r="D98" s="1">
         <v>28190</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>144556</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>393</v>
       </c>
       <c r="D99" s="1">
         <v>28264</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>144806</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>250</v>
       </c>
       <c r="D100" s="1">
         <v>28307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>144921</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>115</v>
       </c>
       <c r="D101" s="1">
         <v>28342</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>145279</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>358</v>
       </c>
       <c r="D102" s="1">
         <v>28407</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>145555</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <v>276</v>
       </c>
       <c r="D103" s="1">
         <v>28505</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>145746</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="4">
         <v>191</v>
       </c>
       <c r="D104" s="1">
         <v>28571</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>149071</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>3325</v>
       </c>
       <c r="D105" s="1">
         <v>28637</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>149668</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <v>597</v>
       </c>
       <c r="D106" s="1">
         <v>28689</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>151496</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <v>1828</v>
       </c>
       <c r="D107" s="1">
         <v>28746</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>151753</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <v>257</v>
       </c>
       <c r="D108" s="1">
         <v>28777</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>152091</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <v>338</v>
       </c>
       <c r="D109" s="1">
         <v>28808</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>151325</v>
       </c>
-      <c r="C110" s="3">
-        <v>766</v>
+      <c r="C110" s="4">
+        <v>-766</v>
       </c>
       <c r="D110" s="1">
         <v>28915</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>151677</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <v>352</v>
       </c>
       <c r="D111" s="1">
         <v>28996</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>152444</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <v>767</v>
       </c>
       <c r="D112" s="1">
         <v>29040</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>153055</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <v>611</v>
       </c>
       <c r="D113" s="1">
         <v>29086</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>153634</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <v>579</v>
       </c>
       <c r="D114" s="1">
         <v>29117</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>153977</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <v>343</v>
       </c>
       <c r="D115" s="1">
         <v>29130</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>154188</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <v>211</v>
       </c>
       <c r="D116" s="1">
         <v>29184</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>154591</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4">
         <v>403</v>
       </c>
       <c r="D117" s="1">
         <v>29271</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>155136</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="4">
         <v>545</v>
       </c>
       <c r="D118" s="1">
         <v>29294</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>155561</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>425</v>
       </c>
       <c r="D119" s="1">
         <v>29321</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>156287</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>726</v>
       </c>
       <c r="D120" s="1">
         <v>29349</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>156813</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4">
         <v>526</v>
       </c>
       <c r="D121" s="1">
         <v>29373</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>157220</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>407</v>
       </c>
       <c r="D122" s="1">
         <v>29382</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>157372</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>152</v>
       </c>
       <c r="D123" s="1">
         <v>29411</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>157716</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>344</v>
       </c>
       <c r="D124" s="1">
         <v>29522</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>158174</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="4">
         <v>458</v>
       </c>
       <c r="D125" s="1">
         <v>29550</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>158641</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4">
         <v>467</v>
       </c>
       <c r="D126" s="1">
         <v>29578</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>159452</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="4">
         <v>811</v>
       </c>
       <c r="D127" s="1">
         <v>29592</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>160093</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4">
         <v>641</v>
       </c>
       <c r="D128" s="1">
         <v>29608</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>160377</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4">
         <v>284</v>
       </c>
       <c r="D129" s="1">
         <v>29615</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>160750</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="4">
         <v>373</v>
       </c>
       <c r="D130" s="1">
         <v>29638</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>161267</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <v>517</v>
       </c>
       <c r="D131" s="1">
         <v>29695</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>161348</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <v>81</v>
       </c>
       <c r="D132" s="1">
         <v>29706</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>161348</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="1">
         <v>29727</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>162936</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <v>1588</v>
       </c>
       <c r="D134" s="1">
         <v>29753</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>163458</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <v>522</v>
       </c>
       <c r="D135" s="1">
         <v>29761</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>163980</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <v>522</v>
       </c>
       <c r="D136" s="1">
         <v>29770</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>164260</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <v>280</v>
       </c>
       <c r="D137" s="1">
         <v>29788</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>164801</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <v>541</v>
       </c>
       <c r="D138" s="1">
         <v>29818</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>165719</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <v>918</v>
       </c>
       <c r="D139" s="1">
         <v>29836</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>166378</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <v>659</v>
       </c>
       <c r="D140" s="1">
         <v>29850</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>166960</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <v>582</v>
       </c>
       <c r="D141" s="1">
         <v>29868</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>167520</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <v>560</v>
       </c>
       <c r="D142" s="1">
         <v>29875</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>168159</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>639</v>
       </c>
       <c r="D143" s="1">
         <v>29882</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>168335</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <v>176</v>
       </c>
       <c r="D144" s="1">
         <v>29895</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>168810</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <v>475</v>
       </c>
       <c r="D145" s="1">
         <v>29908</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>169473</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <v>663</v>
       </c>
       <c r="D146" s="1">
         <v>29940</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>170094</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <v>621</v>
       </c>
       <c r="D147" s="1">
         <v>29954</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>170752</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <v>658</v>
       </c>
       <c r="D148" s="1">
         <v>29979</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>171421</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <v>669</v>
       </c>
       <c r="D149" s="1">
         <v>29983</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>172089</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <v>668</v>
       </c>
       <c r="D150" s="1">
         <v>29986</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>172377</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <v>288</v>
       </c>
       <c r="D151" s="1">
         <v>30004</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>172888</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <v>511</v>
       </c>
       <c r="D152" s="1">
         <v>30075</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>173304</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4">
         <v>416</v>
       </c>
       <c r="D153" s="1">
         <v>30095</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>173838</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <v>534</v>
       </c>
       <c r="D154" s="1">
         <v>30113</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>174674</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <v>836</v>
       </c>
       <c r="D155" s="1">
         <v>30127</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>175539</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <v>865</v>
       </c>
       <c r="D156" s="1">
         <v>30136</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>176404</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <v>865</v>
       </c>
       <c r="D157" s="1">
         <v>30144</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>176754</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <v>350</v>
       </c>
       <c r="D158" s="1">
         <v>30152</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>177338</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="4">
         <v>584</v>
       </c>
       <c r="D159" s="1">
         <v>30165</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>178336</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <v>998</v>
       </c>
       <c r="D160" s="1">
         <v>30172</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>179398</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <v>1062</v>
       </c>
       <c r="D161" s="1">
         <v>30182</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>180528</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <v>1130</v>
       </c>
       <c r="D162" s="1">
         <v>30192</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>181547</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <v>1019</v>
       </c>
       <c r="D163" s="1">
         <v>30196</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>182565</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <v>1018</v>
       </c>
       <c r="D164" s="1">
         <v>30200</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>183079</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <v>514</v>
       </c>
       <c r="D165" s="1">
         <v>30209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>183804</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="4">
         <v>725</v>
       </c>
       <c r="D166" s="1">
         <v>30223</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>185196</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <v>1392</v>
       </c>
       <c r="D167" s="1">
         <v>30238</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="3">
         <v>186573</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="4">
         <v>1377</v>
       </c>
       <c r="D168" s="1">
         <v>30254</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>187919</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="4">
         <v>1346</v>
       </c>
       <c r="D169" s="1">
         <v>30265</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>187919</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="4">
         <v>0</v>
       </c>
       <c r="D170" s="1">
         <v>30268</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>190739</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="4">
         <v>2820</v>
       </c>
       <c r="D171" s="1">
         <v>30272</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>191295</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="4">
         <v>556</v>
       </c>
       <c r="D172" s="1">
         <v>30294</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>192334</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="4">
         <v>1039</v>
       </c>
       <c r="D173" s="1">
         <v>30296</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>194029</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4">
         <v>1695</v>
       </c>
       <c r="D174" s="1">
         <v>30305</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>195633</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="4">
         <v>1604</v>
       </c>
       <c r="D175" s="1">
         <v>30312</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="3">
         <v>197921</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="4">
         <v>2288</v>
       </c>
       <c r="D176" s="1">
         <v>30324</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>199956</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="4">
         <v>2035</v>
       </c>
       <c r="D177" s="1">
         <v>30325</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>201990</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="4">
         <v>2034</v>
       </c>
       <c r="D178" s="1">
         <v>30326</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="3">
         <v>202775</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="4">
         <v>785</v>
       </c>
       <c r="D179" s="1">
         <v>30340</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="3">
         <v>204172</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="4">
         <v>1397</v>
       </c>
       <c r="D180" s="1">
         <v>30354</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="3">
         <v>206696</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="4">
         <v>2524</v>
       </c>
       <c r="D181" s="1">
         <v>30371</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="3">
         <v>209365</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="4">
         <v>2669</v>
       </c>
       <c r="D182" s="1">
         <v>30388</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="3">
         <v>212211</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="4">
         <v>2846</v>
       </c>
       <c r="D183" s="1">
         <v>30405</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="3">
         <v>215521</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="4">
         <v>3310</v>
       </c>
       <c r="D184" s="1">
         <v>30409</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="3">
         <v>218536</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="4">
         <v>3015</v>
       </c>
       <c r="D185" s="1">
         <v>30410</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="3">
         <v>219029</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="4">
         <v>493</v>
       </c>
       <c r="D186" s="1">
         <v>30434</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>221267</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="4">
         <v>2238</v>
       </c>
       <c r="D187" s="1">
         <v>30451</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="3">
         <v>225043</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="4">
         <v>3776</v>
       </c>
       <c r="D188" s="1">
         <v>30468</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>229814</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="4">
         <v>4771</v>
       </c>
       <c r="D189" s="1">
         <v>30480</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>234400</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="4">
         <v>4586</v>
       </c>
       <c r="D190" s="1">
         <v>30503</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>238002</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="4">
         <v>3602</v>
       </c>
       <c r="D191" s="1">
         <v>30512</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="3">
         <v>242899</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="4">
         <v>4897</v>
       </c>
       <c r="D192" s="1">
         <v>30513</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="3">
         <v>244854</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="4">
         <v>1955</v>
       </c>
       <c r="D193" s="1">
         <v>30528</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="3">
         <v>248158</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="4">
         <v>3304</v>
       </c>
       <c r="D194" s="1">
         <v>30544</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>253587</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="4">
         <v>5429</v>
       </c>
       <c r="D195" s="1">
         <v>30544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="3">
         <v>259698</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="4">
         <v>6111</v>
       </c>
       <c r="D196" s="1">
         <v>30576</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>267077</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="4">
         <v>7379</v>
       </c>
       <c r="D197" s="1">
         <v>30596</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="3">
         <v>272530</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="4">
         <v>5453</v>
       </c>
       <c r="D198" s="1">
         <v>30602</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="3">
         <v>277943</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="4">
         <v>5413</v>
       </c>
       <c r="D199" s="1">
         <v>30606</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="3">
         <v>281025</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="4">
         <v>3082</v>
       </c>
       <c r="D200" s="1">
         <v>30635</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="3">
         <v>286007</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="4">
         <v>4982</v>
       </c>
       <c r="D201" s="1">
         <v>30661</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2">
-        <v>29324</v>
-      </c>
-      <c r="C202" s="3">
+      <c r="B202" s="3">
+        <v>293024</v>
+      </c>
+      <c r="C202" s="4">
         <v>7017</v>
       </c>
       <c r="D202" s="1">
         <v>30686</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>300181</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="4">
         <v>7157</v>
       </c>
       <c r="D203" s="1">
         <v>30686</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="3">
         <v>309156</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="4">
         <v>8975</v>
       </c>
       <c r="D204" s="1">
         <v>30686</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="3">
         <v>317706</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="4">
         <v>8550</v>
       </c>
       <c r="D205" s="1">
         <v>30698</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="3">
         <v>324777</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="4">
         <v>7071</v>
       </c>
       <c r="D206" s="1">
         <v>30701</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>328980</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="4">
         <v>4203</v>
       </c>
       <c r="D207" s="1">
         <v>30726</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="2">
-        <v>329904</v>
-      </c>
-      <c r="C208" s="3">
-        <v>9788</v>
+      <c r="B208" s="3">
+        <v>335524</v>
+      </c>
+      <c r="C208" s="4">
+        <v>6544</v>
       </c>
       <c r="D208" s="1">
-        <v>30726</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30764</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="2">
-        <v>333715</v>
-      </c>
-      <c r="C209" s="3">
-        <v>8625</v>
+      <c r="B209" s="3">
+        <v>344101</v>
+      </c>
+      <c r="C209" s="4">
+        <v>8577</v>
       </c>
       <c r="D209" s="1">
-        <v>30764</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30794</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="2">
-        <v>343115</v>
-      </c>
-      <c r="C210" s="3">
-        <v>9459</v>
+      <c r="B210" s="3">
+        <v>353944</v>
+      </c>
+      <c r="C210" s="4">
+        <v>9843</v>
       </c>
       <c r="D210" s="1">
-        <v>30794</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30813</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="2">
-        <v>356144</v>
-      </c>
-      <c r="C211" s="3">
-        <v>13059</v>
+      <c r="B211" s="3">
+        <v>363350</v>
+      </c>
+      <c r="C211" s="4">
+        <v>9406</v>
       </c>
       <c r="D211" s="1">
-        <v>30813</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30893</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
-        <v>371313</v>
-      </c>
-      <c r="C212" s="3">
-        <v>14988</v>
+      <c r="B212" s="3">
+        <v>373911</v>
+      </c>
+      <c r="C212" s="4">
+        <v>10561</v>
       </c>
       <c r="D212" s="1">
-        <v>30893</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30910</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="2">
-        <v>386482</v>
-      </c>
-      <c r="C213" s="3">
-        <v>15435</v>
+      <c r="B213" s="3">
+        <v>381094</v>
+      </c>
+      <c r="C213" s="4">
+        <v>7183</v>
       </c>
       <c r="D213" s="1">
-        <v>30910</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30916</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="2">
-        <v>400855</v>
-      </c>
-      <c r="C214" s="3">
-        <v>13778</v>
+      <c r="B214" s="3">
+        <v>387252</v>
+      </c>
+      <c r="C214" s="4">
+        <v>6158</v>
       </c>
       <c r="D214" s="1">
-        <v>30916</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30950</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="2">
-        <v>411951</v>
-      </c>
-      <c r="C215" s="3">
-        <v>9868</v>
+      <c r="B215" s="3">
+        <v>395104</v>
+      </c>
+      <c r="C215" s="4">
+        <v>7852</v>
       </c>
       <c r="D215" s="1">
-        <v>30950</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="2">
-        <v>415405</v>
-      </c>
-      <c r="C216" s="3">
-        <v>7748</v>
+      <c r="B216" s="3">
+        <v>404888</v>
+      </c>
+      <c r="C216" s="4">
+        <v>9784</v>
       </c>
       <c r="D216" s="1">
-        <v>30999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="2">
-        <v>422470</v>
-      </c>
-      <c r="C217" s="3">
-        <v>8322</v>
+      <c r="B217" s="3">
+        <v>415481</v>
+      </c>
+      <c r="C217" s="4">
+        <v>10593</v>
       </c>
       <c r="D217" s="1">
-        <v>31045</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31095</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="2">
-        <v>434782</v>
-      </c>
-      <c r="C218" s="3">
-        <v>11622</v>
+      <c r="B218" s="3">
+        <v>428696</v>
+      </c>
+      <c r="C218" s="4">
+        <v>13215</v>
       </c>
       <c r="D218" s="1">
-        <v>31095</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2">
-        <v>448689</v>
-      </c>
-      <c r="C219" s="3">
-        <v>12988</v>
+      <c r="B219" s="3">
+        <v>442194</v>
+      </c>
+      <c r="C219" s="4">
+        <v>13498</v>
       </c>
       <c r="D219" s="1">
-        <v>31248</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31274</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="2">
-        <v>459726</v>
-      </c>
-      <c r="C220" s="3">
-        <v>14363</v>
+      <c r="B220" s="3">
+        <v>452763</v>
+      </c>
+      <c r="C220" s="4">
+        <v>10569</v>
       </c>
       <c r="D220" s="1">
-        <v>31274</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="2">
-        <v>476649</v>
-      </c>
-      <c r="C221" s="3">
-        <v>13895</v>
+      <c r="B221" s="3">
+        <v>458061</v>
+      </c>
+      <c r="C221" s="4">
+        <v>5298</v>
       </c>
       <c r="D221" s="1">
-        <v>31285</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31338</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2">
-        <v>489182</v>
-      </c>
-      <c r="C222" s="3">
-        <v>11540</v>
+      <c r="B222" s="3">
+        <v>468069</v>
+      </c>
+      <c r="C222" s="4">
+        <v>10008</v>
       </c>
       <c r="D222" s="1">
-        <v>31338</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="2">
-        <v>493295</v>
-      </c>
-      <c r="C223" s="3">
-        <v>9380</v>
+      <c r="B223" s="3">
+        <v>481141</v>
+      </c>
+      <c r="C223" s="4">
+        <v>13072</v>
       </c>
       <c r="D223" s="1">
-        <v>31416</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="2">
-        <v>503103</v>
-      </c>
-      <c r="C224" s="3">
-        <v>11439</v>
+      <c r="B224" s="3">
+        <v>497237</v>
+      </c>
+      <c r="C224" s="4">
+        <v>16096</v>
       </c>
       <c r="D224" s="1">
-        <v>31459</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31511</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="2">
-        <v>521271</v>
-      </c>
-      <c r="C225" s="3">
-        <v>15788</v>
+      <c r="B225" s="3">
+        <v>513034</v>
+      </c>
+      <c r="C225" s="4">
+        <v>15797</v>
       </c>
       <c r="D225" s="1">
-        <v>31511</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31661</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="2">
-        <v>538811</v>
-      </c>
-      <c r="C226" s="3">
-        <v>19072</v>
+      <c r="B226" s="3">
+        <v>527446</v>
+      </c>
+      <c r="C226" s="4">
+        <v>14412</v>
       </c>
       <c r="D226" s="1">
-        <v>31661</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="2">
-        <v>558519</v>
-      </c>
-      <c r="C227" s="3">
-        <v>21788</v>
+      <c r="B227" s="3">
+        <v>538569</v>
+      </c>
+      <c r="C227" s="4">
+        <v>11123</v>
       </c>
       <c r="D227" s="1">
-        <v>31700</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31727</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="2">
-        <v>585361</v>
-      </c>
-      <c r="C228" s="3">
-        <v>21112</v>
+      <c r="B228" s="3">
+        <v>542639</v>
+      </c>
+      <c r="C228" s="4">
+        <v>4070</v>
       </c>
       <c r="D228" s="1">
-        <v>31727</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31808</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="2">
-        <v>601416</v>
-      </c>
-      <c r="C229" s="3">
-        <v>17167</v>
+      <c r="B229" s="3">
+        <v>550690</v>
+      </c>
+      <c r="C229" s="4">
+        <v>8051</v>
       </c>
       <c r="D229" s="1">
-        <v>31808</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31893</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
-        <v>609826</v>
-      </c>
-      <c r="C230" s="3">
-        <v>12533</v>
+      <c r="B230" s="3">
+        <v>563535</v>
+      </c>
+      <c r="C230" s="4">
+        <v>12845</v>
       </c>
       <c r="D230" s="1">
-        <v>31893</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="2">
-        <v>620859</v>
-      </c>
-      <c r="C231" s="3">
-        <v>14696</v>
+      <c r="B231" s="3">
+        <v>577505</v>
+      </c>
+      <c r="C231" s="4">
+        <v>13970</v>
       </c>
       <c r="D231" s="1">
-        <v>31956</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32019</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="2">
-        <v>642613</v>
-      </c>
-      <c r="C232" s="3">
-        <v>22069</v>
+      <c r="B232" s="3">
+        <v>589653</v>
+      </c>
+      <c r="C232" s="4">
+        <v>12148</v>
       </c>
       <c r="D232" s="1">
-        <v>32019</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32149</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="2">
-        <v>672477</v>
-      </c>
-      <c r="C233" s="3">
-        <v>26099</v>
+      <c r="B233" s="3">
+        <v>606625</v>
+      </c>
+      <c r="C233" s="4">
+        <v>16972</v>
       </c>
       <c r="D233" s="1">
-        <v>32149</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="2">
-        <v>696771</v>
-      </c>
-      <c r="C234" s="3">
-        <v>29378</v>
+      <c r="B234" s="3">
+        <v>619190</v>
+      </c>
+      <c r="C234" s="4">
+        <v>12565</v>
       </c>
       <c r="D234" s="1">
-        <v>32198</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="2">
-        <v>729109</v>
-      </c>
-      <c r="C235" s="3">
-        <v>29117</v>
+      <c r="B235" s="3">
+        <v>624274</v>
+      </c>
+      <c r="C235" s="4">
+        <v>5084</v>
       </c>
       <c r="D235" s="1">
-        <v>32230</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32299</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="2">
-        <v>758861</v>
-      </c>
-      <c r="C236" s="3">
-        <v>29117</v>
+      <c r="B236" s="3">
+        <v>634763</v>
+      </c>
+      <c r="C236" s="4">
+        <v>10489</v>
       </c>
       <c r="D236" s="1">
-        <v>32299</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="2">
-        <v>770719</v>
-      </c>
-      <c r="C237" s="3">
-        <v>25169</v>
+      <c r="B237" s="3">
+        <v>653509</v>
+      </c>
+      <c r="C237" s="4">
+        <v>18746</v>
       </c>
       <c r="D237" s="1">
-        <v>32365</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32445</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2">
-        <v>790021</v>
-      </c>
-      <c r="C238" s="3">
-        <v>21182</v>
+      <c r="B238" s="3">
+        <v>671638</v>
+      </c>
+      <c r="C238" s="4">
+        <v>18129</v>
       </c>
       <c r="D238" s="1">
-        <v>32445</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
-        <v>815721</v>
-      </c>
-      <c r="C239" s="3">
-        <v>20129</v>
+      <c r="B239" s="3">
+        <v>691977</v>
+      </c>
+      <c r="C239" s="4">
+        <v>20339</v>
       </c>
       <c r="D239" s="1">
-        <v>32521</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32630</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="2">
-        <v>856234</v>
-      </c>
-      <c r="C240" s="3">
-        <v>29589</v>
+      <c r="B240" s="3">
+        <v>718873</v>
+      </c>
+      <c r="C240" s="4">
+        <v>26896</v>
       </c>
       <c r="D240" s="1">
-        <v>32630</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32684</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="2">
-        <v>897081</v>
-      </c>
-      <c r="C241" s="3">
-        <v>36777</v>
+      <c r="B241" s="3">
+        <v>734974</v>
+      </c>
+      <c r="C241" s="4">
+        <v>16101</v>
       </c>
       <c r="D241" s="1">
-        <v>32684</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32730</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="2">
-        <v>942366</v>
-      </c>
-      <c r="C242" s="3">
-        <v>43025</v>
+      <c r="B242" s="3">
+        <v>743479</v>
+      </c>
+      <c r="C242" s="4">
+        <v>8505</v>
       </c>
       <c r="D242" s="1">
-        <v>32730</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32825</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="2">
-        <v>993424</v>
-      </c>
-      <c r="C243" s="3">
-        <v>46488</v>
+      <c r="B243" s="3">
+        <v>756472</v>
+      </c>
+      <c r="C243" s="4">
+        <v>12993</v>
       </c>
       <c r="D243" s="1">
-        <v>32825</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32933</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="2">
-        <v>1018913</v>
-      </c>
-      <c r="C244" s="3">
-        <v>41401</v>
+      <c r="B244" s="3">
+        <v>779063</v>
+      </c>
+      <c r="C244" s="4">
+        <v>22591</v>
       </c>
       <c r="D244" s="1">
-        <v>32933</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33037</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="2">
-        <v>1050438</v>
-      </c>
-      <c r="C245" s="3">
-        <v>37399</v>
+      <c r="B245" s="3">
+        <v>809684</v>
+      </c>
+      <c r="C245" s="4">
+        <v>30621</v>
       </c>
       <c r="D245" s="1">
-        <v>33037</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="2">
-        <v>1085370</v>
-      </c>
-      <c r="C246" s="3">
-        <v>32209</v>
+      <c r="B246" s="3">
+        <v>834770</v>
+      </c>
+      <c r="C246" s="4">
+        <v>25086</v>
       </c>
       <c r="D246" s="1">
-        <v>33125</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="2">
-        <v>1131462</v>
-      </c>
-      <c r="C247" s="3">
-        <v>39163</v>
+      <c r="B247" s="3">
+        <v>867197</v>
+      </c>
+      <c r="C247" s="4">
+        <v>32427</v>
       </c>
       <c r="D247" s="1">
-        <v>33303</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33392</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="2">
-        <v>1178886</v>
-      </c>
-      <c r="C248" s="3">
-        <v>44430</v>
+      <c r="B248" s="3">
+        <v>897034</v>
+      </c>
+      <c r="C248" s="4">
+        <v>29837</v>
       </c>
       <c r="D248" s="1">
-        <v>33392</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33477</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="2">
-        <v>1213179</v>
-      </c>
-      <c r="C249" s="3">
-        <v>44164</v>
+      <c r="B249" s="3">
+        <v>910277</v>
+      </c>
+      <c r="C249" s="4">
+        <v>13243</v>
       </c>
       <c r="D249" s="1">
-        <v>33477</v>
+        <v>33623</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3">
+        <v>930745</v>
+      </c>
+      <c r="C250" s="4">
+        <v>20468</v>
+      </c>
+      <c r="D250" s="1">
+        <v>33885</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3">
+        <v>957421</v>
+      </c>
+      <c r="C251" s="4">
+        <v>26676</v>
+      </c>
+      <c r="D251" s="1">
+        <v>34048</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3">
+        <v>999043</v>
+      </c>
+      <c r="C252" s="4">
+        <v>41622</v>
+      </c>
+      <c r="D252" s="1">
+        <v>34210</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1041075</v>
+      </c>
+      <c r="C253" s="4">
+        <v>42032</v>
+      </c>
+      <c r="D253" s="1">
+        <v>34508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1086497</v>
+      </c>
+      <c r="C254" s="4">
+        <v>45422</v>
+      </c>
+      <c r="D254" s="1">
+        <v>34645</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1138507</v>
+      </c>
+      <c r="C255" s="4">
+        <v>52010</v>
+      </c>
+      <c r="D255" s="1">
+        <v>34761</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1165278</v>
+      </c>
+      <c r="C256" s="4">
+        <v>26771</v>
+      </c>
+      <c r="D256" s="1">
+        <v>35018</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1198695</v>
+      </c>
+      <c r="C257" s="4">
+        <v>33417</v>
+      </c>
+      <c r="D257" s="1">
+        <v>35541</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1235132</v>
+      </c>
+      <c r="C258" s="4">
+        <v>36437</v>
+      </c>
+      <c r="D258" s="1">
+        <v>35785</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1282769</v>
+      </c>
+      <c r="C259" s="4">
+        <v>47637</v>
+      </c>
+      <c r="D259" s="1">
+        <v>36020</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1331984</v>
+      </c>
+      <c r="C260" s="4">
+        <v>49215</v>
+      </c>
+      <c r="D260" s="1">
+        <v>36565</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1367625</v>
+      </c>
+      <c r="C261" s="4">
+        <v>35641</v>
+      </c>
+      <c r="D261" s="1">
+        <v>36788</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1415852</v>
+      </c>
+      <c r="C262" s="4">
+        <v>48227</v>
+      </c>
+      <c r="D262" s="1">
+        <v>37019</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1470308</v>
+      </c>
+      <c r="C263" s="4">
+        <v>54456</v>
+      </c>
+      <c r="D263" s="1">
+        <v>37486</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1508576</v>
+      </c>
+      <c r="C264" s="4">
+        <v>38268</v>
+      </c>
+      <c r="D264" s="1">
+        <v>38392</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3">
+        <v>1551072</v>
+      </c>
+      <c r="C265" s="4">
+        <v>42496</v>
+      </c>
+      <c r="D265" s="1">
+        <v>38829</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1611056</v>
+      </c>
+      <c r="C266" s="4">
+        <v>59984</v>
+      </c>
+      <c r="D266" s="1">
+        <v>39244</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="3">
+        <v>1673480</v>
+      </c>
+      <c r="C267" s="4">
+        <v>62424</v>
+      </c>
+      <c r="D267" s="1">
+        <v>40124</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="3">
+        <v>1762270</v>
+      </c>
+      <c r="C268" s="4">
+        <v>88790</v>
+      </c>
+      <c r="D268" s="1">
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="3">
+        <v>1802826</v>
+      </c>
+      <c r="C269" s="4">
+        <v>40556</v>
+      </c>
+      <c r="D269" s="1">
+        <v>40802</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1824918</v>
+      </c>
+      <c r="C270" s="4">
+        <v>22092</v>
+      </c>
+      <c r="D270" s="1">
+        <v>41350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="3">
+        <v>1849035</v>
+      </c>
+      <c r="C271" s="4">
+        <v>24117</v>
+      </c>
+      <c r="D271" s="1">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="3">
+        <v>1886851</v>
+      </c>
+      <c r="C272" s="4">
+        <v>37816</v>
+      </c>
+      <c r="D272" s="1">
+        <v>42535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="3">
+        <v>1921960</v>
+      </c>
+      <c r="C273" s="4">
+        <v>35109</v>
+      </c>
+      <c r="D273" s="1">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="3">
+        <v>1947691</v>
+      </c>
+      <c r="C274" s="4">
+        <v>25731</v>
+      </c>
+      <c r="D274" s="1">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="3">
+        <v>1981723</v>
+      </c>
+      <c r="C275" s="4">
+        <v>34032</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2010888</v>
+      </c>
+      <c r="C276" s="4">
+        <v>29165</v>
+      </c>
+      <c r="D276" s="1">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="3">
+        <v>2022231</v>
+      </c>
+      <c r="C277" s="4">
+        <v>11343</v>
+      </c>
+      <c r="D277" s="1">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2036755</v>
+      </c>
+      <c r="C278" s="4">
+        <v>14524</v>
+      </c>
+      <c r="D278" s="1">
+        <v>46273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3">
+        <v>2065138</v>
+      </c>
+      <c r="C279" s="4">
+        <v>28383</v>
+      </c>
+      <c r="D279" s="1">
+        <v>46950</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3">
+        <v>2086288</v>
+      </c>
+      <c r="C280" s="4">
+        <v>21150</v>
+      </c>
+      <c r="D280" s="1">
+        <v>47631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3">
+        <v>2109170</v>
+      </c>
+      <c r="C281" s="4">
+        <v>22882</v>
+      </c>
+      <c r="D281" s="1">
+        <v>48265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3">
+        <v>2127051</v>
+      </c>
+      <c r="C282" s="4">
+        <v>17881</v>
+      </c>
+      <c r="D282" s="1">
+        <v>48655</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3">
+        <v>2140208</v>
+      </c>
+      <c r="C283" s="4">
+        <v>13157</v>
+      </c>
+      <c r="D283" s="1">
+        <v>49007</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3">
+        <v>2144660</v>
+      </c>
+      <c r="C284" s="4">
+        <v>4452</v>
+      </c>
+      <c r="D284" s="1">
+        <v>49645</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3">
+        <v>2153815</v>
+      </c>
+      <c r="C285" s="4">
+        <v>9155</v>
+      </c>
+      <c r="D285" s="1">
+        <v>50237</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3">
+        <v>2170097</v>
+      </c>
+      <c r="C286" s="4">
+        <v>16282</v>
+      </c>
+      <c r="D286" s="1">
+        <v>50806</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <v>2183660</v>
+      </c>
+      <c r="C287" s="4">
+        <v>13563</v>
+      </c>
+      <c r="D287" s="1">
+        <v>51333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <v>2196119</v>
+      </c>
+      <c r="C288" s="4">
+        <v>12459</v>
+      </c>
+      <c r="D288" s="1">
+        <v>51914</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3">
+        <v>2208699</v>
+      </c>
+      <c r="C289" s="4">
+        <v>12580</v>
+      </c>
+      <c r="D289" s="1">
+        <v>52230</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3">
+        <v>2218483</v>
+      </c>
+      <c r="C290" s="4">
+        <v>9784</v>
+      </c>
+      <c r="D290" s="1">
+        <v>52531</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3">
+        <v>2222488</v>
+      </c>
+      <c r="C291" s="4">
+        <v>4005</v>
+      </c>
+      <c r="D291" s="1">
+        <v>53040</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3">
+        <v>2230571</v>
+      </c>
+      <c r="C292" s="4">
+        <v>8083</v>
+      </c>
+      <c r="D292" s="1">
+        <v>53506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3">
+        <v>2244635</v>
+      </c>
+      <c r="C293" s="4">
+        <v>14064</v>
+      </c>
+      <c r="D293" s="1">
+        <v>53931</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3">
+        <v>2257331</v>
+      </c>
+      <c r="C294" s="4">
+        <v>12696</v>
+      </c>
+      <c r="D294" s="1">
+        <v>54370</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3">
+        <v>2268552</v>
+      </c>
+      <c r="C295" s="4">
+        <v>11221</v>
+      </c>
+      <c r="D295" s="1">
+        <v>54767</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3">
+        <v>2281475</v>
+      </c>
+      <c r="C296" s="4">
+        <v>12923</v>
+      </c>
+      <c r="D296" s="1">
+        <v>55094</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3">
+        <v>2292497</v>
+      </c>
+      <c r="C297" s="4">
+        <v>11022</v>
+      </c>
+      <c r="D297" s="1">
+        <v>55381</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3">
+        <v>2295908</v>
+      </c>
+      <c r="C298" s="4">
+        <v>3411</v>
+      </c>
+      <c r="D298" s="1">
+        <v>55861</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3">
+        <v>2309621</v>
+      </c>
+      <c r="C299" s="4">
+        <v>13713</v>
+      </c>
+      <c r="D299" s="1">
+        <v>56352</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3">
+        <v>2324216</v>
+      </c>
+      <c r="C300" s="4">
+        <v>14595</v>
+      </c>
+      <c r="D300" s="1">
+        <v>56755</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3">
+        <v>2337966</v>
+      </c>
+      <c r="C301" s="4">
+        <v>13750</v>
+      </c>
+      <c r="D301" s="1">
+        <v>57155</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3">
+        <v>2351372</v>
+      </c>
+      <c r="C302" s="4">
+        <v>13406</v>
+      </c>
+      <c r="D302" s="1">
+        <v>57567</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3">
+        <v>2365319</v>
+      </c>
+      <c r="C303" s="4">
+        <v>13947</v>
+      </c>
+      <c r="D303" s="1">
+        <v>57881</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3">
+        <v>2376852</v>
+      </c>
+      <c r="C304" s="4">
+        <v>11533</v>
+      </c>
+      <c r="D304" s="1">
+        <v>58152</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3">
+        <v>2379915</v>
+      </c>
+      <c r="C305" s="4">
+        <v>3063</v>
+      </c>
+      <c r="D305" s="1">
+        <v>58644</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3">
+        <v>2391447</v>
+      </c>
+      <c r="C306" s="4">
+        <v>11532</v>
+      </c>
+      <c r="D306" s="1">
+        <v>59072</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3">
+        <v>2409062</v>
+      </c>
+      <c r="C307" s="4">
+        <v>17615</v>
+      </c>
+      <c r="D307" s="1">
+        <v>59479</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3">
+        <v>2427316</v>
+      </c>
+      <c r="C308" s="4">
+        <v>18254</v>
+      </c>
+      <c r="D308" s="1">
+        <v>59855</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3">
+        <v>2442990</v>
+      </c>
+      <c r="C309" s="4">
+        <v>15674</v>
+      </c>
+      <c r="D309" s="1">
+        <v>60229</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="3">
+        <v>2460555</v>
+      </c>
+      <c r="C310" s="4">
+        <v>17565</v>
+      </c>
+      <c r="D310" s="1">
+        <v>60523</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3">
+        <v>2473354</v>
+      </c>
+      <c r="C311" s="4">
+        <v>12799</v>
+      </c>
+      <c r="D311" s="1">
+        <v>60759</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="3">
+        <v>2479151</v>
+      </c>
+      <c r="C312" s="4">
+        <v>5797</v>
+      </c>
+      <c r="D312" s="1">
+        <v>61215</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="3">
+        <v>2490946</v>
+      </c>
+      <c r="C313" s="4">
+        <v>11795</v>
+      </c>
+      <c r="D313" s="1">
+        <v>61702</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="3">
+        <v>2505875</v>
+      </c>
+      <c r="C314" s="4">
+        <v>14929</v>
+      </c>
+      <c r="D314" s="1">
+        <v>62061</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="3">
+        <v>2527509</v>
+      </c>
+      <c r="C315" s="4">
+        <v>21634</v>
+      </c>
+      <c r="D315" s="1">
+        <v>62434</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="3">
+        <v>2547771</v>
+      </c>
+      <c r="C316" s="4">
+        <v>20262</v>
+      </c>
+      <c r="D316" s="1">
+        <v>62676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="3">
+        <v>2550864</v>
+      </c>
+      <c r="C317" s="4">
+        <v>3093</v>
+      </c>
+      <c r="D317" s="1">
+        <v>62906</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="3">
+        <v>2559686</v>
+      </c>
+      <c r="C318" s="4">
+        <v>8822</v>
+      </c>
+      <c r="D318" s="1">
+        <v>63163</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="3">
+        <v>2562646</v>
+      </c>
+      <c r="C319" s="4">
+        <v>2960</v>
+      </c>
+      <c r="D319" s="1">
+        <v>63610</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="3">
+        <v>2574041</v>
+      </c>
+      <c r="C320" s="4">
+        <v>11395</v>
+      </c>
+      <c r="D320" s="1">
+        <v>64078</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="3">
+        <v>2600498</v>
+      </c>
+      <c r="C321" s="4">
+        <v>26457</v>
+      </c>
+      <c r="D321" s="1">
+        <v>64455</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="3">
+        <v>2620425</v>
+      </c>
+      <c r="C322" s="4">
+        <v>19927</v>
+      </c>
+      <c r="D322" s="1">
+        <v>64780</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="3">
+        <v>2639773</v>
+      </c>
+      <c r="C323" s="4">
+        <v>19348</v>
+      </c>
+      <c r="D323" s="1">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="3">
+        <v>2643239</v>
+      </c>
+      <c r="C324" s="4">
+        <v>3466</v>
+      </c>
+      <c r="D324" s="1">
+        <v>65218</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="3">
+        <v>2655728</v>
+      </c>
+      <c r="C325" s="4">
+        <v>12489</v>
+      </c>
+      <c r="D325" s="1">
+        <v>65409</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="3">
+        <v>2659750</v>
+      </c>
+      <c r="C326" s="4">
+        <v>4022</v>
+      </c>
+      <c r="D326" s="1">
+        <v>65862</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="3">
+        <v>2680239</v>
+      </c>
+      <c r="C327" s="4">
+        <v>20489</v>
+      </c>
+      <c r="D327" s="1">
+        <v>66282</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="3">
+        <v>2705618</v>
+      </c>
+      <c r="C328" s="4">
+        <v>25379</v>
+      </c>
+      <c r="D328" s="1">
+        <v>66669</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="3">
+        <v>2727321</v>
+      </c>
+      <c r="C329" s="4">
+        <v>21703</v>
+      </c>
+      <c r="D329" s="1">
+        <v>67050</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="3">
+        <v>2747135</v>
+      </c>
+      <c r="C330" s="4">
+        <v>19814</v>
+      </c>
+      <c r="D330" s="1">
+        <v>67431</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="3">
+        <v>2767312</v>
+      </c>
+      <c r="C331" s="4">
+        <v>20177</v>
+      </c>
+      <c r="D331" s="1">
+        <v>67695</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="3">
+        <v>2783256</v>
+      </c>
+      <c r="C332" s="4">
+        <v>15944</v>
+      </c>
+      <c r="D332" s="1">
+        <v>67943</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="3">
+        <v>2786838</v>
+      </c>
+      <c r="C333" s="4">
+        <v>3582</v>
+      </c>
+      <c r="D333" s="1">
+        <v>68350</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="3">
+        <v>2806590</v>
+      </c>
+      <c r="C334" s="4">
+        <v>19752</v>
+      </c>
+      <c r="D334" s="1">
+        <v>68802</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="3">
+        <v>2830442</v>
+      </c>
+      <c r="C335" s="4">
+        <v>23852</v>
+      </c>
+      <c r="D335" s="1">
+        <v>69149</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="3">
+        <v>2851670</v>
+      </c>
+      <c r="C336" s="4">
+        <v>21228</v>
+      </c>
+      <c r="D336" s="1">
+        <v>69550</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="3">
+        <v>2872941</v>
+      </c>
+      <c r="C337" s="4">
+        <v>21271</v>
+      </c>
+      <c r="D337" s="1">
+        <v>69949</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="3">
+        <v>2894347</v>
+      </c>
+      <c r="C338" s="4">
+        <v>21406</v>
+      </c>
+      <c r="D338" s="1">
+        <v>70213</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="3">
+        <v>2910989</v>
+      </c>
+      <c r="C339" s="4">
+        <v>16642</v>
+      </c>
+      <c r="D339" s="1">
+        <v>70426</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="3">
+        <v>2914725</v>
+      </c>
+      <c r="C340" s="4">
+        <v>3736</v>
+      </c>
+      <c r="D340" s="1">
+        <v>70901</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="3">
+        <v>2938333</v>
+      </c>
+      <c r="C341" s="4">
+        <v>23608</v>
+      </c>
+      <c r="D341" s="1">
+        <v>71342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" s="3">
+        <v>2965117</v>
+      </c>
+      <c r="C342" s="4">
+        <v>26784</v>
+      </c>
+      <c r="D342" s="1">
+        <v>71762</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" s="3">
+        <v>2987965</v>
+      </c>
+      <c r="C343" s="4">
+        <v>22848</v>
+      </c>
+      <c r="D343" s="1">
+        <v>72218</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" s="3">
+        <v>3011257</v>
+      </c>
+      <c r="C344" s="4">
+        <v>23292</v>
+      </c>
+      <c r="D344" s="1">
+        <v>72647</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" s="3">
+        <v>3035181</v>
+      </c>
+      <c r="C345" s="4">
+        <v>23924</v>
+      </c>
+      <c r="D345" s="1">
+        <v>72942</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" s="3">
+        <v>3053617</v>
+      </c>
+      <c r="C346" s="4">
+        <v>18436</v>
+      </c>
+      <c r="D346" s="1">
+        <v>73179</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" s="3">
+        <v>3057857</v>
+      </c>
+      <c r="C347" s="4">
+        <v>4240</v>
+      </c>
+      <c r="D347" s="1">
+        <v>73689</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" s="3">
+        <v>3079943</v>
+      </c>
+      <c r="C348" s="4">
+        <v>22086</v>
+      </c>
+      <c r="D348" s="1">
+        <v>74106</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" s="3">
+        <v>3106859</v>
+      </c>
+      <c r="C349" s="4">
+        <v>26916</v>
+      </c>
+      <c r="D349" s="1">
+        <v>74611</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" s="3">
+        <v>3130629</v>
+      </c>
+      <c r="C350" s="4">
+        <v>23770</v>
+      </c>
+      <c r="D350" s="1">
+        <v>75110</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" s="3">
+        <v>3153487</v>
+      </c>
+      <c r="C351" s="4">
+        <v>22858</v>
+      </c>
+      <c r="D351" s="1">
+        <v>75620</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" s="3">
+        <v>3177879</v>
+      </c>
+      <c r="C352" s="4">
+        <v>24392</v>
+      </c>
+      <c r="D352" s="1">
+        <v>75942</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" s="3">
+        <v>3197114</v>
+      </c>
+      <c r="C353" s="4">
+        <v>19235</v>
+      </c>
+      <c r="D353" s="1">
+        <v>76217</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" s="3">
+        <v>3201461</v>
+      </c>
+      <c r="C354" s="4">
+        <v>4347</v>
+      </c>
+      <c r="D354" s="1">
+        <v>76753</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" s="3">
+        <v>3224798</v>
+      </c>
+      <c r="C355" s="4">
+        <v>23337</v>
+      </c>
+      <c r="D355" s="1">
+        <v>77238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" s="3">
+        <v>3251160</v>
+      </c>
+      <c r="C356" s="4">
+        <v>26362</v>
+      </c>
+      <c r="D356" s="1">
+        <v>77714</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" s="3">
+        <v>3274608</v>
+      </c>
+      <c r="C357" s="4">
+        <v>23448</v>
+      </c>
+      <c r="D357" s="1">
+        <v>78190</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" s="3">
+        <v>3296747</v>
+      </c>
+      <c r="C358" s="4">
+        <v>22139</v>
+      </c>
+      <c r="D358" s="1">
+        <v>78603</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" s="3">
+        <v>3317333</v>
+      </c>
+      <c r="C359" s="4">
+        <v>20586</v>
+      </c>
+      <c r="D359" s="1">
+        <v>78866</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" s="3">
+        <v>3337048</v>
+      </c>
+      <c r="C360" s="4">
+        <v>19715</v>
+      </c>
+      <c r="D360" s="1">
+        <v>79109</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" s="3">
+        <v>3341365</v>
+      </c>
+      <c r="C361" s="4">
+        <v>4317</v>
+      </c>
+      <c r="D361" s="1">
+        <v>79639</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" s="3">
+        <v>3360235</v>
+      </c>
+      <c r="C362" s="4">
+        <v>18870</v>
+      </c>
+      <c r="D362" s="1">
+        <v>80147</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" s="3">
+        <v>3385622</v>
+      </c>
+      <c r="C363" s="4">
+        <v>25387</v>
+      </c>
+      <c r="D363" s="1">
+        <v>80551</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" s="3">
+        <v>3406685</v>
+      </c>
+      <c r="C364" s="4">
+        <v>21063</v>
+      </c>
+      <c r="D364" s="1">
+        <v>81019</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" s="3">
+        <v>3427386</v>
+      </c>
+      <c r="C365" s="4">
+        <v>20701</v>
+      </c>
+      <c r="D365" s="1">
+        <v>81448</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" s="3">
+        <v>3448617</v>
+      </c>
+      <c r="C366" s="4">
+        <v>21231</v>
+      </c>
+      <c r="D366" s="1">
+        <v>81705</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" s="3">
+        <v>3465163</v>
+      </c>
+      <c r="C367" s="4">
+        <v>16546</v>
+      </c>
+      <c r="D367" s="1">
+        <v>81931</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" s="3">
+        <v>3469539</v>
+      </c>
+      <c r="C368" s="4">
+        <v>4376</v>
+      </c>
+      <c r="D368" s="1">
+        <v>82402</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" s="3">
+        <v>3489129</v>
+      </c>
+      <c r="C369" s="4">
+        <v>19590</v>
+      </c>
+      <c r="D369" s="1">
+        <v>82812</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" s="3">
+        <v>3514147</v>
+      </c>
+      <c r="C370" s="4">
+        <v>25018</v>
+      </c>
+      <c r="D370" s="1">
+        <v>83203</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" s="3">
+        <v>3536648</v>
+      </c>
+      <c r="C371" s="4">
+        <v>22501</v>
+      </c>
+      <c r="D371" s="1">
+        <v>83555</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" s="3">
+        <v>3560764</v>
+      </c>
+      <c r="C372" s="4">
+        <v>24116</v>
+      </c>
+      <c r="D372" s="1">
+        <v>83964</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" s="3">
+        <v>3583135</v>
+      </c>
+      <c r="C373" s="4">
+        <v>22371</v>
+      </c>
+      <c r="D373" s="1">
+        <v>84177</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" s="3">
+        <v>3605181</v>
+      </c>
+      <c r="C374" s="4">
+        <v>22046</v>
+      </c>
+      <c r="D374" s="1">
+        <v>84340</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" s="3">
+        <v>3609827</v>
+      </c>
+      <c r="C375" s="4">
+        <v>4646</v>
+      </c>
+      <c r="D375" s="1">
+        <v>84703</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" s="3">
+        <v>3629891</v>
+      </c>
+      <c r="C376" s="4">
+        <v>20064</v>
+      </c>
+      <c r="D376" s="1">
+        <v>85044</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" s="3">
+        <v>3661410</v>
+      </c>
+      <c r="C377" s="4">
+        <v>31519</v>
+      </c>
+      <c r="D377" s="1">
+        <v>85414</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" s="3">
+        <v>3686813</v>
+      </c>
+      <c r="C378" s="4">
+        <v>25403</v>
+      </c>
+      <c r="D378" s="1">
+        <v>85768</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" s="3">
+        <v>3712020</v>
+      </c>
+      <c r="C379" s="4">
+        <v>25207</v>
+      </c>
+      <c r="D379" s="1">
+        <v>86147</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" s="3">
+        <v>3736016</v>
+      </c>
+      <c r="C380" s="4">
+        <v>23996</v>
+      </c>
+      <c r="D380" s="1">
+        <v>86361</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" s="3">
+        <v>3755968</v>
+      </c>
+      <c r="C381" s="4">
+        <v>19952</v>
+      </c>
+      <c r="D381" s="1">
+        <v>86486</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" s="3">
+        <v>3760671</v>
+      </c>
+      <c r="C382" s="4">
+        <v>4703</v>
+      </c>
+      <c r="D382" s="1">
+        <v>86890</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" s="3">
+        <v>3783528</v>
+      </c>
+      <c r="C383" s="4">
+        <v>22857</v>
+      </c>
+      <c r="D383" s="1">
+        <v>87220</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" s="3">
+        <v>3810316</v>
+      </c>
+      <c r="C384" s="4">
+        <v>26788</v>
+      </c>
+      <c r="D384" s="1">
+        <v>87609</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" s="3">
+        <v>3835595</v>
+      </c>
+      <c r="C385" s="4">
+        <v>25279</v>
+      </c>
+      <c r="D385" s="1">
+        <v>87969</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" s="3">
+        <v>3859102</v>
+      </c>
+      <c r="C386" s="4">
+        <v>23507</v>
+      </c>
+      <c r="D386" s="1">
+        <v>88274</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" s="3">
+        <v>3882408</v>
+      </c>
+      <c r="C387" s="4">
+        <v>23306</v>
+      </c>
+      <c r="D387" s="1">
+        <v>88461</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" s="3">
+        <v>3904233</v>
+      </c>
+      <c r="C388" s="4">
+        <v>21825</v>
+      </c>
+      <c r="D388" s="1">
+        <v>88608</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" s="3">
+        <v>3909560</v>
+      </c>
+      <c r="C389" s="4">
+        <v>5327</v>
+      </c>
+      <c r="D389" s="1">
+        <v>88985</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" s="3">
+        <v>3932862</v>
+      </c>
+      <c r="C390" s="4">
+        <v>23302</v>
+      </c>
+      <c r="D390" s="1">
+        <v>89301</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" s="3">
+        <v>3963165</v>
+      </c>
+      <c r="C391" s="4">
+        <v>30303</v>
+      </c>
+      <c r="D391" s="1">
+        <v>89596</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" s="3">
+        <v>3990331</v>
+      </c>
+      <c r="C392" s="4">
+        <v>27166</v>
+      </c>
+      <c r="D392" s="1">
+        <v>89892</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" s="3">
+        <v>4015560</v>
+      </c>
+      <c r="C393" s="4">
+        <v>25229</v>
+      </c>
+      <c r="D393" s="1">
+        <v>90146</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" s="3">
+        <v>4045319</v>
+      </c>
+      <c r="C394" s="4">
+        <v>29759</v>
+      </c>
+      <c r="D394" s="1">
+        <v>90338</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" s="3">
+        <v>4071662</v>
+      </c>
+      <c r="C395" s="4">
+        <v>26343</v>
+      </c>
+      <c r="D395" s="1">
+        <v>90475</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" s="3">
+        <v>4078133</v>
+      </c>
+      <c r="C396" s="4">
+        <v>6471</v>
+      </c>
+      <c r="D396" s="1">
+        <v>90832</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" s="3">
+        <v>4108108</v>
+      </c>
+      <c r="C397" s="4">
+        <v>29975</v>
+      </c>
+      <c r="D397" s="1">
+        <v>91170</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" s="3">
+        <v>4146609</v>
+      </c>
+      <c r="C398" s="4">
+        <v>38501</v>
+      </c>
+      <c r="D398" s="1">
+        <v>91470</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" s="3">
+        <v>4181607</v>
+      </c>
+      <c r="C399" s="4">
+        <v>34998</v>
+      </c>
+      <c r="D399" s="1">
+        <v>91797</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" s="3">
+        <v>4216677</v>
+      </c>
+      <c r="C400" s="4">
+        <v>35070</v>
+      </c>
+      <c r="D400" s="1">
+        <v>92159</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" s="3">
+        <v>4252022</v>
+      </c>
+      <c r="C401" s="4">
+        <v>35345</v>
+      </c>
+      <c r="D401" s="1">
+        <v>92403</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" s="3">
+        <v>4282603</v>
+      </c>
+      <c r="C402" s="4">
+        <v>30581</v>
+      </c>
+      <c r="D402" s="1">
+        <v>92573</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" s="3">
+        <v>4320175</v>
+      </c>
+      <c r="C403" s="4">
+        <v>37572</v>
+      </c>
+      <c r="D403" s="1">
+        <v>92975</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" s="3">
+        <v>4345057</v>
+      </c>
+      <c r="C404" s="4">
+        <v>24882</v>
+      </c>
+      <c r="D404" s="1">
+        <v>93322</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" s="3">
+        <v>4378446</v>
+      </c>
+      <c r="C405" s="4">
+        <v>33389</v>
+      </c>
+      <c r="D405" s="1">
+        <v>93627</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" s="3">
+        <v>4424087</v>
+      </c>
+      <c r="C406" s="4">
+        <v>45641</v>
+      </c>
+      <c r="D406" s="1">
+        <v>93912</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" s="3">
+        <v>4465956</v>
+      </c>
+      <c r="C407" s="4">
+        <v>41869</v>
+      </c>
+      <c r="D407" s="1">
+        <v>94275</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" s="3">
+        <v>4508575</v>
+      </c>
+      <c r="C408" s="4">
+        <v>42619</v>
+      </c>
+      <c r="D408" s="1">
+        <v>94476</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" s="3">
+        <v>4545589</v>
+      </c>
+      <c r="C409" s="4">
+        <v>37014</v>
+      </c>
+      <c r="D409" s="1">
+        <v>94618</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" s="3">
+        <v>4574193</v>
+      </c>
+      <c r="C410" s="4">
+        <v>28604</v>
+      </c>
+      <c r="D410" s="1">
+        <v>94989</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" s="3">
+        <v>4602516</v>
+      </c>
+      <c r="C411" s="4">
+        <v>28323</v>
+      </c>
+      <c r="D411" s="1">
+        <v>95337</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" s="3">
+        <v>4644423</v>
+      </c>
+      <c r="C412" s="4">
+        <v>41907</v>
+      </c>
+      <c r="D412" s="1">
+        <v>95662</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" s="3">
+        <v>4695082</v>
+      </c>
+      <c r="C413" s="4">
+        <v>50659</v>
+      </c>
+      <c r="D413" s="1">
+        <v>95976</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" s="3">
+        <v>4741759</v>
+      </c>
+      <c r="C414" s="4">
+        <v>46677</v>
+      </c>
+      <c r="D414" s="1">
+        <v>96280</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" s="3">
+        <v>4761548</v>
+      </c>
+      <c r="C415" s="4">
+        <v>19789</v>
+      </c>
+      <c r="D415" s="1">
+        <v>96493</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" s="3">
+        <v>4822470</v>
+      </c>
+      <c r="C416" s="4">
+        <v>60922</v>
+      </c>
+      <c r="D416" s="1">
+        <v>96678</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" s="3">
+        <v>4834805</v>
+      </c>
+      <c r="C417" s="4">
+        <v>12335</v>
+      </c>
+      <c r="D417" s="1">
+        <v>96875</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" s="3">
+        <v>4892604</v>
+      </c>
+      <c r="C418" s="4">
+        <v>57799</v>
+      </c>
+      <c r="D418" s="1">
+        <v>97289</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" s="3">
+        <v>4923389</v>
+      </c>
+      <c r="C419" s="4">
+        <v>30785</v>
+      </c>
+      <c r="D419" s="1">
+        <v>97720</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" s="3">
+        <v>4939258</v>
+      </c>
+      <c r="C420" s="4">
+        <v>15869</v>
+      </c>
+      <c r="D420" s="1">
+        <v>98094</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" s="3">
+        <v>4980501</v>
+      </c>
+      <c r="C421" s="4">
+        <v>41243</v>
+      </c>
+      <c r="D421" s="1">
+        <v>98395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" s="3">
+        <v>5023785</v>
+      </c>
+      <c r="C422" s="4">
+        <v>43284</v>
+      </c>
+      <c r="D422" s="1">
+        <v>98574</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" s="3">
+        <v>5058680</v>
+      </c>
+      <c r="C423" s="4">
+        <v>34895</v>
+      </c>
+      <c r="D423" s="1">
+        <v>98750</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" s="3">
+        <v>5067216</v>
+      </c>
+      <c r="C424" s="4">
+        <v>8536</v>
+      </c>
+      <c r="D424" s="1">
+        <v>99135</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" s="3">
+        <v>5106329</v>
+      </c>
+      <c r="C425" s="4">
+        <v>39113</v>
+      </c>
+      <c r="D425" s="1">
+        <v>99486</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" s="3">
+        <v>5149834</v>
+      </c>
+      <c r="C426" s="4">
+        <v>43505</v>
+      </c>
+      <c r="D426" s="1">
+        <v>99789</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" s="3">
+        <v>5187879</v>
+      </c>
+      <c r="C427" s="4">
+        <v>38045</v>
+      </c>
+      <c r="D427" s="1">
+        <v>100091</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="3">
+        <v>5224321</v>
+      </c>
+      <c r="C428" s="4">
+        <v>36442</v>
+      </c>
+      <c r="D428" s="1">
+        <v>100404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="3">
+        <v>5260182</v>
+      </c>
+      <c r="C429" s="4">
+        <v>35861</v>
+      </c>
+      <c r="D429" s="1">
+        <v>100593</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="3">
+        <v>5289526</v>
+      </c>
+      <c r="C430" s="4">
+        <v>29344</v>
+      </c>
+      <c r="D430" s="1">
+        <v>100733</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="3">
+        <v>5296822</v>
+      </c>
+      <c r="C431" s="4">
+        <v>7296</v>
+      </c>
+      <c r="D431" s="1">
+        <v>101222</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="3">
+        <v>5339320</v>
+      </c>
+      <c r="C432" s="4">
+        <v>42498</v>
+      </c>
+      <c r="D432" s="1">
+        <v>101568</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="3">
+        <v>5374288</v>
+      </c>
+      <c r="C433" s="4">
+        <v>34968</v>
+      </c>
+      <c r="D433" s="1">
+        <v>101881</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" s="3">
+        <v>5408606</v>
+      </c>
+      <c r="C434" s="4">
+        <v>34318</v>
+      </c>
+      <c r="D434" s="1">
+        <v>102164</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" s="3">
+        <v>5440946</v>
+      </c>
+      <c r="C435" s="4">
+        <v>32340</v>
+      </c>
+      <c r="D435" s="1">
+        <v>102496</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" s="3">
+        <v>5473579</v>
+      </c>
+      <c r="C436" s="4">
+        <v>32633</v>
+      </c>
+      <c r="D436" s="1">
+        <v>102713</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" s="3">
+        <v>5498044</v>
+      </c>
+      <c r="C437" s="4">
+        <v>24465</v>
+      </c>
+      <c r="D437" s="1">
+        <v>102865</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" s="3">
+        <v>5503996</v>
+      </c>
+      <c r="C438" s="4">
+        <v>5952</v>
+      </c>
+      <c r="D438" s="1">
+        <v>103270</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" s="3">
+        <v>5534313</v>
+      </c>
+      <c r="C439" s="4">
+        <v>30317</v>
+      </c>
+      <c r="D439" s="1">
+        <v>103603</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" s="3">
+        <v>5565852</v>
+      </c>
+      <c r="C440" s="4">
+        <v>31539</v>
+      </c>
+      <c r="D440" s="1">
+        <v>103925</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" s="3">
+        <v>5592390</v>
+      </c>
+      <c r="C441" s="4">
+        <v>26538</v>
+      </c>
+      <c r="D441" s="1">
+        <v>104238</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" s="3">
+        <v>5616689</v>
+      </c>
+      <c r="C442" s="4">
+        <v>24299</v>
+      </c>
+      <c r="D442" s="1">
+        <v>104514</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5642359</v>
+      </c>
+      <c r="C443" s="4">
+        <v>25670</v>
+      </c>
+      <c r="D443" s="1">
+        <v>104706</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" s="3">
+        <v>5652247</v>
+      </c>
+      <c r="C444" s="4">
+        <v>9888</v>
+      </c>
+      <c r="D444" s="1">
+        <v>104819</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849DF07E-0E4B-41B7-8012-B5DC88707F7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BDB8F5-4AE8-4A21-89FD-32CE7129E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D444"/>
+      <selection activeCell="B2" sqref="B2:B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +625,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -639,10 +639,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -653,10 +653,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C17" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -681,10 +681,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -709,10 +709,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C20" s="4">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -723,10 +723,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C21" s="4">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1">
         <v>7</v>
@@ -737,10 +737,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="C22" s="4">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
@@ -751,10 +751,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>949</v>
+        <v>868</v>
       </c>
       <c r="C23" s="4">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
@@ -765,10 +765,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>1209</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="4">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D24" s="1">
         <v>19</v>
@@ -779,10 +779,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>1412</v>
+        <v>1289</v>
       </c>
       <c r="C25" s="4">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -793,10 +793,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>1784</v>
+        <v>1627</v>
       </c>
       <c r="C26" s="4">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="D26" s="1">
         <v>33</v>
@@ -807,10 +807,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>2281</v>
+        <v>2079</v>
       </c>
       <c r="C27" s="4">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="D27" s="1">
         <v>48</v>
@@ -821,10 +821,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>2876</v>
+        <v>2619</v>
       </c>
       <c r="C28" s="4">
-        <v>595</v>
+        <v>540</v>
       </c>
       <c r="D28" s="1">
         <v>61</v>
@@ -835,10 +835,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>3661</v>
+        <v>3333</v>
       </c>
       <c r="C29" s="4">
-        <v>785</v>
+        <v>714</v>
       </c>
       <c r="D29" s="1">
         <v>79</v>
@@ -849,10 +849,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>4499</v>
+        <v>4094</v>
       </c>
       <c r="C30" s="4">
-        <v>838</v>
+        <v>761</v>
       </c>
       <c r="D30" s="1">
         <v>91</v>
@@ -863,10 +863,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>5423</v>
+        <v>4934</v>
       </c>
       <c r="C31" s="4">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="D31" s="1">
         <v>127</v>
@@ -877,10 +877,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>6633</v>
+        <v>6034</v>
       </c>
       <c r="C32" s="4">
-        <v>1210</v>
+        <v>1100</v>
       </c>
       <c r="D32" s="1">
         <v>148</v>
@@ -891,10 +891,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>7730</v>
+        <v>7031</v>
       </c>
       <c r="C33" s="4">
-        <v>1097</v>
+        <v>997</v>
       </c>
       <c r="D33" s="1">
         <v>175</v>
@@ -905,10 +905,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>9134</v>
+        <v>8308</v>
       </c>
       <c r="C34" s="4">
-        <v>1404</v>
+        <v>1277</v>
       </c>
       <c r="D34" s="1">
         <v>264</v>
@@ -919,10 +919,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>10995</v>
+        <v>9999</v>
       </c>
       <c r="C35" s="4">
-        <v>1861</v>
+        <v>1691</v>
       </c>
       <c r="D35" s="1">
         <v>372</v>
@@ -933,10 +933,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>12612</v>
+        <v>11468</v>
       </c>
       <c r="C36" s="4">
-        <v>1617</v>
+        <v>1469</v>
       </c>
       <c r="D36" s="1">
         <v>450</v>
@@ -947,10 +947,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>14459</v>
+        <v>13146</v>
       </c>
       <c r="C37" s="4">
-        <v>1847</v>
+        <v>1678</v>
       </c>
       <c r="D37" s="1">
         <v>562</v>
@@ -961,10 +961,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>16018</v>
+        <v>14563</v>
       </c>
       <c r="C38" s="4">
-        <v>1559</v>
+        <v>1417</v>
       </c>
       <c r="D38" s="1">
         <v>674</v>
@@ -975,10 +975,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>19856</v>
+        <v>18051</v>
       </c>
       <c r="C39" s="4">
-        <v>3838</v>
+        <v>3488</v>
       </c>
       <c r="D39" s="1">
         <v>860</v>
@@ -989,10 +989,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>22304</v>
+        <v>20275</v>
       </c>
       <c r="C40" s="4">
-        <v>2448</v>
+        <v>2224</v>
       </c>
       <c r="D40" s="1">
         <v>1100</v>
@@ -1003,10 +1003,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>25233</v>
+        <v>22937</v>
       </c>
       <c r="C41" s="4">
-        <v>2929</v>
+        <v>2662</v>
       </c>
       <c r="D41" s="1">
         <v>1331</v>
@@ -1017,10 +1017,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>29155</v>
+        <v>26501</v>
       </c>
       <c r="C42" s="4">
-        <v>3922</v>
+        <v>3564</v>
       </c>
       <c r="D42" s="1">
         <v>1696</v>
@@ -1031,10 +1031,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>32964</v>
+        <v>29963</v>
       </c>
       <c r="C43" s="4">
-        <v>3809</v>
+        <v>3462</v>
       </c>
       <c r="D43" s="1">
         <v>1995</v>
@@ -1045,10 +1045,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>37575</v>
+        <v>34154</v>
       </c>
       <c r="C44" s="4">
-        <v>4611</v>
+        <v>4191</v>
       </c>
       <c r="D44" s="1">
         <v>2314</v>
@@ -1059,10 +1059,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>40174</v>
+        <v>36516</v>
       </c>
       <c r="C45" s="4">
-        <v>2599</v>
+        <v>2362</v>
       </c>
       <c r="D45" s="1">
         <v>2606</v>
@@ -1073,10 +1073,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>44550</v>
+        <v>40493</v>
       </c>
       <c r="C46" s="4">
-        <v>4376</v>
+        <v>3977</v>
       </c>
       <c r="D46" s="1">
         <v>3024</v>
@@ -1087,10 +1087,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>52128</v>
+        <v>47380</v>
       </c>
       <c r="C47" s="4">
-        <v>7578</v>
+        <v>6887</v>
       </c>
       <c r="D47" s="1">
         <v>3522</v>
@@ -1101,10 +1101,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>56989</v>
+        <v>51798</v>
       </c>
       <c r="C48" s="4">
-        <v>4861</v>
+        <v>4418</v>
       </c>
       <c r="D48" s="1">
         <v>4030</v>
@@ -1115,10 +1115,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>59105</v>
+        <v>53721</v>
       </c>
       <c r="C49" s="4">
-        <v>2116</v>
+        <v>1923</v>
       </c>
       <c r="D49" s="1">
         <v>5384</v>
@@ -1129,10 +1129,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>64338</v>
+        <v>58476</v>
       </c>
       <c r="C50" s="4">
-        <v>5233</v>
+        <v>4755</v>
       </c>
       <c r="D50" s="1">
         <v>6503</v>
@@ -1143,10 +1143,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>68605</v>
+        <v>62353</v>
       </c>
       <c r="C51" s="4">
-        <v>4267</v>
+        <v>3877</v>
       </c>
       <c r="D51" s="1">
         <v>7555</v>
@@ -1157,10 +1157,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>70478</v>
+        <v>64056</v>
       </c>
       <c r="C52" s="4">
-        <v>1873</v>
+        <v>1703</v>
       </c>
       <c r="D52" s="1">
         <v>8072</v>
@@ -1171,10 +1171,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>74390</v>
+        <v>67611</v>
       </c>
       <c r="C53" s="4">
-        <v>3912</v>
+        <v>3555</v>
       </c>
       <c r="D53" s="1">
         <v>8904</v>
@@ -1185,10 +1185,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>78167</v>
+        <v>71043</v>
       </c>
       <c r="C54" s="4">
-        <v>3777</v>
+        <v>3432</v>
       </c>
       <c r="D54" s="1">
         <v>10320</v>
@@ -1199,10 +1199,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>82048</v>
+        <v>74569</v>
       </c>
       <c r="C55" s="4">
-        <v>3881</v>
+        <v>3526</v>
       </c>
       <c r="D55" s="1">
         <v>10860</v>
@@ -1213,10 +1213,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>86334</v>
+        <v>78464</v>
       </c>
       <c r="C56" s="4">
-        <v>4286</v>
+        <v>3895</v>
       </c>
       <c r="D56" s="1">
         <v>12199</v>
@@ -1227,10 +1227,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>90676</v>
+        <v>82410</v>
       </c>
       <c r="C57" s="4">
-        <v>4342</v>
+        <v>3946</v>
       </c>
       <c r="D57" s="1">
         <v>13185</v>
@@ -1241,10 +1241,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>93790</v>
+        <v>85239</v>
       </c>
       <c r="C58" s="4">
-        <v>3114</v>
+        <v>2829</v>
       </c>
       <c r="D58" s="1">
         <v>13819</v>
@@ -1255,10 +1255,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>95403</v>
+        <v>86705</v>
       </c>
       <c r="C59" s="4">
-        <v>1613</v>
+        <v>1466</v>
       </c>
       <c r="D59" s="1">
         <v>14380</v>
@@ -1269,10 +1269,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>98076</v>
+        <v>89133</v>
       </c>
       <c r="C60" s="4">
-        <v>2673</v>
+        <v>2428</v>
       </c>
       <c r="D60" s="1">
         <v>14954</v>
@@ -1283,10 +1283,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>103573</v>
+        <v>94129</v>
       </c>
       <c r="C61" s="4">
-        <v>5497</v>
+        <v>4996</v>
       </c>
       <c r="D61" s="1">
         <v>15715</v>
@@ -1297,10 +1297,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>106206</v>
+        <v>96522</v>
       </c>
       <c r="C62" s="4">
-        <v>2633</v>
+        <v>2393</v>
       </c>
       <c r="D62" s="1">
         <v>17152</v>
@@ -1311,10 +1311,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>108847</v>
+        <v>98922</v>
       </c>
       <c r="C63" s="4">
-        <v>2641</v>
+        <v>2400</v>
       </c>
       <c r="D63" s="1">
         <v>17904</v>
@@ -1325,10 +1325,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>109252</v>
+        <v>99290</v>
       </c>
       <c r="C64" s="4">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="D64" s="1">
         <v>18664</v>
@@ -1339,10 +1339,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>111821</v>
+        <v>101625</v>
       </c>
       <c r="C65" s="4">
-        <v>2569</v>
+        <v>2335</v>
       </c>
       <c r="D65" s="1">
         <v>19305</v>
@@ -1353,10 +1353,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>112606</v>
+        <v>102339</v>
       </c>
       <c r="C66" s="4">
-        <v>785</v>
+        <v>714</v>
       </c>
       <c r="D66" s="1">
         <v>19700</v>
@@ -1367,10 +1367,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>114657</v>
+        <v>104203</v>
       </c>
       <c r="C67" s="4">
-        <v>2051</v>
+        <v>1864</v>
       </c>
       <c r="D67" s="1">
         <v>20246</v>
@@ -1381,10 +1381,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>117324</v>
+        <v>106626</v>
       </c>
       <c r="C68" s="4">
-        <v>2667</v>
+        <v>2423</v>
       </c>
       <c r="D68" s="1">
         <v>20776</v>
@@ -1395,10 +1395,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>119151</v>
+        <v>108287</v>
       </c>
       <c r="C69" s="4">
-        <v>1827</v>
+        <v>1661</v>
       </c>
       <c r="D69" s="1">
         <v>21319</v>
@@ -1409,10 +1409,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>120804</v>
+        <v>109789</v>
       </c>
       <c r="C70" s="4">
-        <v>1653</v>
+        <v>1502</v>
       </c>
       <c r="D70" s="1">
         <v>21834</v>
@@ -1423,10 +1423,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>122577</v>
+        <v>111400</v>
       </c>
       <c r="C71" s="4">
-        <v>1773</v>
+        <v>1611</v>
       </c>
       <c r="D71" s="1">
         <v>22223</v>
@@ -1437,10 +1437,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>124114</v>
+        <v>112797</v>
       </c>
       <c r="C72" s="4">
-        <v>1537</v>
+        <v>1397</v>
       </c>
       <c r="D72" s="1">
         <v>22592</v>
@@ -1451,10 +1451,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>124575</v>
+        <v>113216</v>
       </c>
       <c r="C73" s="4">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="D73" s="1">
         <v>22834</v>
@@ -1465,10 +1465,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>128339</v>
+        <v>116636</v>
       </c>
       <c r="C74" s="4">
-        <v>3764</v>
+        <v>3420</v>
       </c>
       <c r="D74" s="1">
         <v>23270</v>
@@ -1479,10 +1479,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>129859</v>
+        <v>118017</v>
       </c>
       <c r="C75" s="4">
-        <v>1520</v>
+        <v>1381</v>
       </c>
       <c r="D75" s="1">
         <v>23637</v>
@@ -1493,10 +1493,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>128442</v>
+        <v>119692</v>
       </c>
       <c r="C76" s="4">
-        <v>-1417</v>
+        <v>1675</v>
       </c>
       <c r="D76" s="1">
         <v>24063</v>
@@ -1507,10 +1507,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>129581</v>
+        <v>120753</v>
       </c>
       <c r="C77" s="4">
-        <v>1139</v>
+        <v>1061</v>
       </c>
       <c r="D77" s="1">
         <v>24352</v>
@@ -1521,10 +1521,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>130185</v>
+        <v>121316</v>
       </c>
       <c r="C78" s="4">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="D78" s="1">
         <v>24570</v>
@@ -1535,10 +1535,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>130979</v>
+        <v>122056</v>
       </c>
       <c r="C79" s="4">
-        <v>794</v>
+        <v>740</v>
       </c>
       <c r="D79" s="1">
         <v>24736</v>
@@ -1549,10 +1549,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>131287</v>
+        <v>122343</v>
       </c>
       <c r="C80" s="4">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D80" s="1">
         <v>24871</v>
@@ -1563,10 +1563,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>131863</v>
+        <v>122880</v>
       </c>
       <c r="C81" s="4">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="D81" s="1">
         <v>25177</v>
@@ -1577,10 +1577,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>132967</v>
+        <v>123909</v>
       </c>
       <c r="C82" s="4">
-        <v>1104</v>
+        <v>1029</v>
       </c>
       <c r="D82" s="1">
         <v>25507</v>
@@ -1591,10 +1591,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>137150</v>
+        <v>127807</v>
       </c>
       <c r="C83" s="4">
-        <v>4183</v>
+        <v>3898</v>
       </c>
       <c r="D83" s="1">
         <v>25785</v>
@@ -1605,10 +1605,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>137779</v>
+        <v>128393</v>
       </c>
       <c r="C84" s="4">
-        <v>629</v>
+        <v>586</v>
       </c>
       <c r="D84" s="1">
         <v>25963</v>
@@ -1619,10 +1619,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>138421</v>
+        <v>128991</v>
       </c>
       <c r="C85" s="4">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="D85" s="1">
         <v>26206</v>
@@ -1633,10 +1633,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>138854</v>
+        <v>129394</v>
       </c>
       <c r="C86" s="4">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="D86" s="1">
         <v>26286</v>
@@ -1647,10 +1647,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>139063</v>
+        <v>129589</v>
       </c>
       <c r="C87" s="4">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D87" s="1">
         <v>26356</v>
@@ -1661,10 +1661,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>139519</v>
+        <v>130014</v>
       </c>
       <c r="C88" s="4">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D88" s="1">
         <v>26619</v>
@@ -1675,10 +1675,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>140227</v>
+        <v>130673</v>
       </c>
       <c r="C89" s="4">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="D89" s="1">
         <v>26967</v>
@@ -1689,10 +1689,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>140734</v>
+        <v>131146</v>
       </c>
       <c r="C90" s="4">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="D90" s="1">
         <v>27050</v>
@@ -1703,10 +1703,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>141356</v>
+        <v>131726</v>
       </c>
       <c r="C91" s="4">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D91" s="1">
         <v>27401</v>
@@ -1717,10 +1717,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>141919</v>
+        <v>132250</v>
       </c>
       <c r="C92" s="4">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="D92" s="1">
         <v>27505</v>
@@ -1731,10 +1731,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>142291</v>
+        <v>132597</v>
       </c>
       <c r="C93" s="4">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D93" s="1">
         <v>27601</v>
@@ -1745,10 +1745,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>142411</v>
+        <v>132709</v>
       </c>
       <c r="C94" s="4">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D94" s="1">
         <v>27747</v>
@@ -1759,10 +1759,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>142903</v>
+        <v>133168</v>
       </c>
       <c r="C95" s="4">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="D95" s="1">
         <v>27878</v>
@@ -1773,10 +1773,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>143427</v>
+        <v>133657</v>
       </c>
       <c r="C96" s="4">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="D96" s="1">
         <v>27997</v>
@@ -1787,10 +1787,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>143845</v>
+        <v>134046</v>
       </c>
       <c r="C97" s="4">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D97" s="1">
         <v>28107</v>
@@ -1801,10 +1801,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>144163</v>
+        <v>134342</v>
       </c>
       <c r="C98" s="4">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D98" s="1">
         <v>28190</v>
@@ -1815,10 +1815,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>144556</v>
+        <v>134708</v>
       </c>
       <c r="C99" s="4">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="D99" s="1">
         <v>28264</v>
@@ -1829,10 +1829,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>144806</v>
+        <v>134941</v>
       </c>
       <c r="C100" s="4">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D100" s="1">
         <v>28307</v>
@@ -1843,10 +1843,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>144921</v>
+        <v>135048</v>
       </c>
       <c r="C101" s="4">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D101" s="1">
         <v>28342</v>
@@ -1857,10 +1857,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>145279</v>
+        <v>135382</v>
       </c>
       <c r="C102" s="4">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D102" s="1">
         <v>28407</v>
@@ -1871,10 +1871,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>145555</v>
+        <v>135639</v>
       </c>
       <c r="C103" s="4">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D103" s="1">
         <v>28505</v>
@@ -1885,10 +1885,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>145746</v>
+        <v>135817</v>
       </c>
       <c r="C104" s="4">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D104" s="1">
         <v>28571</v>
@@ -1899,10 +1899,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>149071</v>
+        <v>138915</v>
       </c>
       <c r="C105" s="4">
-        <v>3325</v>
+        <v>3098</v>
       </c>
       <c r="D105" s="1">
         <v>28637</v>
@@ -1913,10 +1913,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>149668</v>
+        <v>139471</v>
       </c>
       <c r="C106" s="4">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="D106" s="1">
         <v>28689</v>
@@ -1927,10 +1927,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>151496</v>
+        <v>141174</v>
       </c>
       <c r="C107" s="4">
-        <v>1828</v>
+        <v>1703</v>
       </c>
       <c r="D107" s="1">
         <v>28746</v>
@@ -1941,10 +1941,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>151753</v>
+        <v>141413</v>
       </c>
       <c r="C108" s="4">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D108" s="1">
         <v>28777</v>
@@ -1955,10 +1955,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>152091</v>
+        <v>141728</v>
       </c>
       <c r="C109" s="4">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D109" s="1">
         <v>28808</v>
@@ -1969,10 +1969,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>151325</v>
+        <v>142011</v>
       </c>
       <c r="C110" s="4">
-        <v>-766</v>
+        <v>283</v>
       </c>
       <c r="D110" s="1">
         <v>28915</v>
@@ -1983,10 +1983,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>151677</v>
+        <v>142341</v>
       </c>
       <c r="C111" s="4">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D111" s="1">
         <v>28996</v>
@@ -1997,10 +1997,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>152444</v>
+        <v>143061</v>
       </c>
       <c r="C112" s="4">
-        <v>767</v>
+        <v>720</v>
       </c>
       <c r="D112" s="1">
         <v>29040</v>
@@ -2011,10 +2011,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>153055</v>
+        <v>143634</v>
       </c>
       <c r="C113" s="4">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="D113" s="1">
         <v>29086</v>
@@ -2025,10 +2025,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>153634</v>
+        <v>144177</v>
       </c>
       <c r="C114" s="4">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="D114" s="1">
         <v>29117</v>
@@ -2039,10 +2039,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>153977</v>
+        <v>144499</v>
       </c>
       <c r="C115" s="4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D115" s="1">
         <v>29130</v>
@@ -2053,10 +2053,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>154188</v>
+        <v>144697</v>
       </c>
       <c r="C116" s="4">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D116" s="1">
         <v>29184</v>
@@ -2067,10 +2067,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>154591</v>
+        <v>145075</v>
       </c>
       <c r="C117" s="4">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="D117" s="1">
         <v>29271</v>
@@ -2081,10 +2081,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>155136</v>
+        <v>145586</v>
       </c>
       <c r="C118" s="4">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D118" s="1">
         <v>29294</v>
@@ -2095,10 +2095,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>155561</v>
+        <v>145985</v>
       </c>
       <c r="C119" s="4">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="D119" s="1">
         <v>29321</v>
@@ -2109,10 +2109,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>156287</v>
+        <v>146666</v>
       </c>
       <c r="C120" s="4">
-        <v>726</v>
+        <v>681</v>
       </c>
       <c r="D120" s="1">
         <v>29349</v>
@@ -2123,10 +2123,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>156813</v>
+        <v>147160</v>
       </c>
       <c r="C121" s="4">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D121" s="1">
         <v>29373</v>
@@ -2137,10 +2137,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>157220</v>
+        <v>147542</v>
       </c>
       <c r="C122" s="4">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D122" s="1">
         <v>29382</v>
@@ -2151,10 +2151,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>157372</v>
+        <v>147685</v>
       </c>
       <c r="C123" s="4">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D123" s="1">
         <v>29411</v>
@@ -2165,10 +2165,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>157716</v>
+        <v>148008</v>
       </c>
       <c r="C124" s="4">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D124" s="1">
         <v>29522</v>
@@ -2179,10 +2179,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>158174</v>
+        <v>148438</v>
       </c>
       <c r="C125" s="4">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D125" s="1">
         <v>29550</v>
@@ -2193,10 +2193,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>158641</v>
+        <v>148876</v>
       </c>
       <c r="C126" s="4">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="D126" s="1">
         <v>29578</v>
@@ -2207,10 +2207,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>159452</v>
+        <v>149637</v>
       </c>
       <c r="C127" s="4">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="D127" s="1">
         <v>29592</v>
@@ -2221,10 +2221,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>160093</v>
+        <v>150239</v>
       </c>
       <c r="C128" s="4">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="D128" s="1">
         <v>29608</v>
@@ -2235,10 +2235,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>160377</v>
+        <v>150506</v>
       </c>
       <c r="C129" s="4">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D129" s="1">
         <v>29615</v>
@@ -2249,10 +2249,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>160750</v>
+        <v>150856</v>
       </c>
       <c r="C130" s="4">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D130" s="1">
         <v>29638</v>
@@ -2263,10 +2263,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3">
-        <v>161267</v>
+        <v>151341</v>
       </c>
       <c r="C131" s="4">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="D131" s="1">
         <v>29695</v>
@@ -2277,10 +2277,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>161348</v>
+        <v>151417</v>
       </c>
       <c r="C132" s="4">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D132" s="1">
         <v>29706</v>
@@ -2291,7 +2291,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>161348</v>
+        <v>151417</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>162936</v>
+        <v>152907</v>
       </c>
       <c r="C134" s="4">
-        <v>1588</v>
+        <v>1490</v>
       </c>
       <c r="D134" s="1">
         <v>29753</v>
@@ -2319,10 +2319,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>163458</v>
+        <v>153397</v>
       </c>
       <c r="C135" s="4">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="D135" s="1">
         <v>29761</v>
@@ -2333,10 +2333,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>163980</v>
+        <v>153887</v>
       </c>
       <c r="C136" s="4">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="D136" s="1">
         <v>29770</v>
@@ -2347,10 +2347,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>164260</v>
+        <v>154150</v>
       </c>
       <c r="C137" s="4">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D137" s="1">
         <v>29788</v>
@@ -2361,10 +2361,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <v>164801</v>
+        <v>154658</v>
       </c>
       <c r="C138" s="4">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="D138" s="1">
         <v>29818</v>
@@ -2375,10 +2375,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <v>165719</v>
+        <v>155519</v>
       </c>
       <c r="C139" s="4">
-        <v>918</v>
+        <v>861</v>
       </c>
       <c r="D139" s="1">
         <v>29836</v>
@@ -2389,10 +2389,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>166378</v>
+        <v>156137</v>
       </c>
       <c r="C140" s="4">
-        <v>659</v>
+        <v>618</v>
       </c>
       <c r="D140" s="1">
         <v>29850</v>
@@ -2403,10 +2403,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <v>166960</v>
+        <v>156683</v>
       </c>
       <c r="C141" s="4">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D141" s="1">
         <v>29868</v>
@@ -2417,10 +2417,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>167520</v>
+        <v>157209</v>
       </c>
       <c r="C142" s="4">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="D142" s="1">
         <v>29875</v>
@@ -2431,10 +2431,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <v>168159</v>
+        <v>157809</v>
       </c>
       <c r="C143" s="4">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="D143" s="1">
         <v>29882</v>
@@ -2445,10 +2445,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>168335</v>
+        <v>157974</v>
       </c>
       <c r="C144" s="4">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D144" s="1">
         <v>29895</v>
@@ -2459,10 +2459,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <v>168810</v>
+        <v>158420</v>
       </c>
       <c r="C145" s="4">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="D145" s="1">
         <v>29908</v>
@@ -2473,10 +2473,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>169473</v>
+        <v>159042</v>
       </c>
       <c r="C146" s="4">
-        <v>663</v>
+        <v>622</v>
       </c>
       <c r="D146" s="1">
         <v>29940</v>
@@ -2487,10 +2487,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <v>170094</v>
+        <v>159625</v>
       </c>
       <c r="C147" s="4">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="D147" s="1">
         <v>29954</v>
@@ -2501,10 +2501,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>170752</v>
+        <v>160242</v>
       </c>
       <c r="C148" s="4">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="D148" s="1">
         <v>29979</v>
@@ -2515,10 +2515,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>171421</v>
+        <v>160870</v>
       </c>
       <c r="C149" s="4">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="D149" s="1">
         <v>29983</v>
@@ -2529,10 +2529,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>172089</v>
+        <v>161497</v>
       </c>
       <c r="C150" s="4">
-        <v>668</v>
+        <v>627</v>
       </c>
       <c r="D150" s="1">
         <v>29986</v>
@@ -2543,10 +2543,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="3">
-        <v>172377</v>
+        <v>161767</v>
       </c>
       <c r="C151" s="4">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D151" s="1">
         <v>30004</v>
@@ -2557,10 +2557,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>172888</v>
+        <v>162247</v>
       </c>
       <c r="C152" s="4">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="D152" s="1">
         <v>30075</v>
@@ -2571,10 +2571,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3">
-        <v>173304</v>
+        <v>162637</v>
       </c>
       <c r="C153" s="4">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="D153" s="1">
         <v>30095</v>
@@ -2585,10 +2585,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="3">
-        <v>173838</v>
+        <v>163138</v>
       </c>
       <c r="C154" s="4">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="D154" s="1">
         <v>30113</v>
@@ -2599,10 +2599,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="3">
-        <v>174674</v>
+        <v>163923</v>
       </c>
       <c r="C155" s="4">
-        <v>836</v>
+        <v>785</v>
       </c>
       <c r="D155" s="1">
         <v>30127</v>
@@ -2613,10 +2613,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>175539</v>
+        <v>164735</v>
       </c>
       <c r="C156" s="4">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="D156" s="1">
         <v>30136</v>
@@ -2627,10 +2627,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3">
-        <v>176404</v>
+        <v>165547</v>
       </c>
       <c r="C157" s="4">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="D157" s="1">
         <v>30144</v>
@@ -2641,10 +2641,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3">
-        <v>176754</v>
+        <v>165875</v>
       </c>
       <c r="C158" s="4">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="D158" s="1">
         <v>30152</v>
@@ -2655,10 +2655,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="3">
-        <v>177338</v>
+        <v>166423</v>
       </c>
       <c r="C159" s="4">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D159" s="1">
         <v>30165</v>
@@ -2669,10 +2669,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>178336</v>
+        <v>167360</v>
       </c>
       <c r="C160" s="4">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="D160" s="1">
         <v>30172</v>
@@ -2683,10 +2683,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <v>179398</v>
+        <v>168357</v>
       </c>
       <c r="C161" s="4">
-        <v>1062</v>
+        <v>997</v>
       </c>
       <c r="D161" s="1">
         <v>30182</v>
@@ -2697,10 +2697,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="3">
-        <v>180528</v>
+        <v>169417</v>
       </c>
       <c r="C162" s="4">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="D162" s="1">
         <v>30192</v>
@@ -2711,10 +2711,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3">
-        <v>181547</v>
+        <v>170373</v>
       </c>
       <c r="C163" s="4">
-        <v>1019</v>
+        <v>956</v>
       </c>
       <c r="D163" s="1">
         <v>30196</v>
@@ -2725,10 +2725,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="3">
-        <v>182565</v>
+        <v>171328</v>
       </c>
       <c r="C164" s="4">
-        <v>1018</v>
+        <v>955</v>
       </c>
       <c r="D164" s="1">
         <v>30200</v>
@@ -2739,10 +2739,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="3">
-        <v>183079</v>
+        <v>171810</v>
       </c>
       <c r="C165" s="4">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D165" s="1">
         <v>30209</v>
@@ -2753,10 +2753,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="3">
-        <v>183804</v>
+        <v>172490</v>
       </c>
       <c r="C166" s="4">
-        <v>725</v>
+        <v>680</v>
       </c>
       <c r="D166" s="1">
         <v>30223</v>
@@ -2767,10 +2767,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="3">
-        <v>185196</v>
+        <v>173796</v>
       </c>
       <c r="C167" s="4">
-        <v>1392</v>
+        <v>1306</v>
       </c>
       <c r="D167" s="1">
         <v>30238</v>
@@ -2781,10 +2781,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3">
-        <v>186573</v>
+        <v>175088</v>
       </c>
       <c r="C168" s="4">
-        <v>1377</v>
+        <v>1292</v>
       </c>
       <c r="D168" s="1">
         <v>30254</v>
@@ -2795,10 +2795,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="3">
-        <v>187919</v>
+        <v>176351</v>
       </c>
       <c r="C169" s="4">
-        <v>1346</v>
+        <v>1263</v>
       </c>
       <c r="D169" s="1">
         <v>30265</v>
@@ -2809,7 +2809,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3">
-        <v>187919</v>
+        <v>176351</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="3">
-        <v>190739</v>
+        <v>178997</v>
       </c>
       <c r="C171" s="4">
-        <v>2820</v>
+        <v>2646</v>
       </c>
       <c r="D171" s="1">
         <v>30272</v>
@@ -2837,10 +2837,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3">
-        <v>191295</v>
+        <v>179519</v>
       </c>
       <c r="C172" s="4">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="D172" s="1">
         <v>30294</v>
@@ -2851,10 +2851,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3">
-        <v>192334</v>
+        <v>180494</v>
       </c>
       <c r="C173" s="4">
-        <v>1039</v>
+        <v>975</v>
       </c>
       <c r="D173" s="1">
         <v>30296</v>
@@ -2865,10 +2865,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3">
-        <v>194029</v>
+        <v>182085</v>
       </c>
       <c r="C174" s="4">
-        <v>1695</v>
+        <v>1591</v>
       </c>
       <c r="D174" s="1">
         <v>30305</v>
@@ -2879,10 +2879,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3">
-        <v>195633</v>
+        <v>183590</v>
       </c>
       <c r="C175" s="4">
-        <v>1604</v>
+        <v>1505</v>
       </c>
       <c r="D175" s="1">
         <v>30312</v>
@@ -2893,10 +2893,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3">
-        <v>197921</v>
+        <v>185737</v>
       </c>
       <c r="C176" s="4">
-        <v>2288</v>
+        <v>2147</v>
       </c>
       <c r="D176" s="1">
         <v>30324</v>
@@ -2907,10 +2907,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3">
-        <v>199956</v>
+        <v>187647</v>
       </c>
       <c r="C177" s="4">
-        <v>2035</v>
+        <v>1910</v>
       </c>
       <c r="D177" s="1">
         <v>30325</v>
@@ -2921,10 +2921,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="3">
-        <v>201990</v>
+        <v>189556</v>
       </c>
       <c r="C178" s="4">
-        <v>2034</v>
+        <v>1909</v>
       </c>
       <c r="D178" s="1">
         <v>30326</v>
@@ -2935,10 +2935,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3">
-        <v>202775</v>
+        <v>190293</v>
       </c>
       <c r="C179" s="4">
-        <v>785</v>
+        <v>737</v>
       </c>
       <c r="D179" s="1">
         <v>30340</v>
@@ -2949,10 +2949,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3">
-        <v>204172</v>
+        <v>191604</v>
       </c>
       <c r="C180" s="4">
-        <v>1397</v>
+        <v>1311</v>
       </c>
       <c r="D180" s="1">
         <v>30354</v>
@@ -2963,10 +2963,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3">
-        <v>206696</v>
+        <v>193973</v>
       </c>
       <c r="C181" s="4">
-        <v>2524</v>
+        <v>2369</v>
       </c>
       <c r="D181" s="1">
         <v>30371</v>
@@ -2977,10 +2977,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="3">
-        <v>209365</v>
+        <v>196478</v>
       </c>
       <c r="C182" s="4">
-        <v>2669</v>
+        <v>2505</v>
       </c>
       <c r="D182" s="1">
         <v>30388</v>
@@ -2991,10 +2991,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3">
-        <v>212211</v>
+        <v>199149</v>
       </c>
       <c r="C183" s="4">
-        <v>2846</v>
+        <v>2671</v>
       </c>
       <c r="D183" s="1">
         <v>30405</v>
@@ -3005,10 +3005,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="3">
-        <v>215521</v>
+        <v>202255</v>
       </c>
       <c r="C184" s="4">
-        <v>3310</v>
+        <v>3106</v>
       </c>
       <c r="D184" s="1">
         <v>30409</v>
@@ -3019,10 +3019,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="3">
-        <v>218536</v>
+        <v>205084</v>
       </c>
       <c r="C185" s="4">
-        <v>3015</v>
+        <v>2829</v>
       </c>
       <c r="D185" s="1">
         <v>30410</v>
@@ -3033,10 +3033,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="3">
-        <v>219029</v>
+        <v>205547</v>
       </c>
       <c r="C186" s="4">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="D186" s="1">
         <v>30434</v>
@@ -3047,10 +3047,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3">
-        <v>221267</v>
+        <v>207647</v>
       </c>
       <c r="C187" s="4">
-        <v>2238</v>
+        <v>2100</v>
       </c>
       <c r="D187" s="1">
         <v>30451</v>
@@ -3061,10 +3061,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="3">
-        <v>225043</v>
+        <v>211191</v>
       </c>
       <c r="C188" s="4">
-        <v>3776</v>
+        <v>3544</v>
       </c>
       <c r="D188" s="1">
         <v>30468</v>
@@ -3075,10 +3075,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="3">
-        <v>229814</v>
+        <v>215668</v>
       </c>
       <c r="C189" s="4">
-        <v>4771</v>
+        <v>4477</v>
       </c>
       <c r="D189" s="1">
         <v>30480</v>
@@ -3089,10 +3089,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="3">
-        <v>234400</v>
+        <v>219972</v>
       </c>
       <c r="C190" s="4">
-        <v>4586</v>
+        <v>4304</v>
       </c>
       <c r="D190" s="1">
         <v>30503</v>
@@ -3103,10 +3103,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3">
-        <v>238002</v>
+        <v>223352</v>
       </c>
       <c r="C191" s="4">
-        <v>3602</v>
+        <v>3380</v>
       </c>
       <c r="D191" s="1">
         <v>30512</v>
@@ -3117,10 +3117,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="3">
-        <v>242899</v>
+        <v>227948</v>
       </c>
       <c r="C192" s="4">
-        <v>4897</v>
+        <v>4596</v>
       </c>
       <c r="D192" s="1">
         <v>30513</v>
@@ -3131,10 +3131,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3">
-        <v>244854</v>
+        <v>229783</v>
       </c>
       <c r="C193" s="4">
-        <v>1955</v>
+        <v>1835</v>
       </c>
       <c r="D193" s="1">
         <v>30528</v>
@@ -3145,10 +3145,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="3">
-        <v>248158</v>
+        <v>232884</v>
       </c>
       <c r="C194" s="4">
-        <v>3304</v>
+        <v>3101</v>
       </c>
       <c r="D194" s="1">
         <v>30544</v>
@@ -3159,10 +3159,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="3">
-        <v>253587</v>
+        <v>237979</v>
       </c>
       <c r="C195" s="4">
-        <v>5429</v>
+        <v>5095</v>
       </c>
       <c r="D195" s="1">
         <v>30544</v>
@@ -3173,10 +3173,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="3">
-        <v>259698</v>
+        <v>243714</v>
       </c>
       <c r="C196" s="4">
-        <v>6111</v>
+        <v>5735</v>
       </c>
       <c r="D196" s="1">
         <v>30576</v>
@@ -3187,10 +3187,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="3">
-        <v>267077</v>
+        <v>250639</v>
       </c>
       <c r="C197" s="4">
-        <v>7379</v>
+        <v>6925</v>
       </c>
       <c r="D197" s="1">
         <v>30596</v>
@@ -3201,10 +3201,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="3">
-        <v>272530</v>
+        <v>255756</v>
       </c>
       <c r="C198" s="4">
-        <v>5453</v>
+        <v>5117</v>
       </c>
       <c r="D198" s="1">
         <v>30602</v>
@@ -3215,10 +3215,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="3">
-        <v>277943</v>
+        <v>260836</v>
       </c>
       <c r="C199" s="4">
-        <v>5413</v>
+        <v>5080</v>
       </c>
       <c r="D199" s="1">
         <v>30606</v>
@@ -3229,10 +3229,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3">
-        <v>281025</v>
+        <v>263728</v>
       </c>
       <c r="C200" s="4">
-        <v>3082</v>
+        <v>2892</v>
       </c>
       <c r="D200" s="1">
         <v>30635</v>
@@ -3243,10 +3243,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="3">
-        <v>286007</v>
+        <v>268403</v>
       </c>
       <c r="C201" s="4">
-        <v>4982</v>
+        <v>4675</v>
       </c>
       <c r="D201" s="1">
         <v>30661</v>
@@ -3257,10 +3257,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="3">
-        <v>293024</v>
+        <v>274988</v>
       </c>
       <c r="C202" s="4">
-        <v>7017</v>
+        <v>6585</v>
       </c>
       <c r="D202" s="1">
         <v>30686</v>
@@ -3271,10 +3271,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3">
-        <v>300181</v>
+        <v>281704</v>
       </c>
       <c r="C203" s="4">
-        <v>7157</v>
+        <v>6716</v>
       </c>
       <c r="D203" s="1">
         <v>30686</v>
@@ -3285,10 +3285,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3">
-        <v>309156</v>
+        <v>290127</v>
       </c>
       <c r="C204" s="4">
-        <v>8975</v>
+        <v>8423</v>
       </c>
       <c r="D204" s="1">
         <v>30686</v>
@@ -3299,10 +3299,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="3">
-        <v>317706</v>
+        <v>298151</v>
       </c>
       <c r="C205" s="4">
-        <v>8550</v>
+        <v>8024</v>
       </c>
       <c r="D205" s="1">
         <v>30698</v>
@@ -3313,10 +3313,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="3">
-        <v>324777</v>
+        <v>304787</v>
       </c>
       <c r="C206" s="4">
-        <v>7071</v>
+        <v>6636</v>
       </c>
       <c r="D206" s="1">
         <v>30701</v>
@@ -3327,10 +3327,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="3">
-        <v>328980</v>
+        <v>308731</v>
       </c>
       <c r="C207" s="4">
-        <v>4203</v>
+        <v>3944</v>
       </c>
       <c r="D207" s="1">
         <v>30726</v>
@@ -3341,10 +3341,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3">
-        <v>335524</v>
+        <v>314872</v>
       </c>
       <c r="C208" s="4">
-        <v>6544</v>
+        <v>6141</v>
       </c>
       <c r="D208" s="1">
         <v>30764</v>
@@ -3355,10 +3355,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="3">
-        <v>344101</v>
+        <v>322921</v>
       </c>
       <c r="C209" s="4">
-        <v>8577</v>
+        <v>8049</v>
       </c>
       <c r="D209" s="1">
         <v>30794</v>
@@ -3369,10 +3369,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3">
-        <v>353944</v>
+        <v>332158</v>
       </c>
       <c r="C210" s="4">
-        <v>9843</v>
+        <v>9237</v>
       </c>
       <c r="D210" s="1">
         <v>30813</v>
@@ -3383,10 +3383,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="3">
-        <v>363350</v>
+        <v>340985</v>
       </c>
       <c r="C211" s="4">
-        <v>9406</v>
+        <v>8827</v>
       </c>
       <c r="D211" s="1">
         <v>30893</v>
@@ -3397,10 +3397,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3">
-        <v>373911</v>
+        <v>350896</v>
       </c>
       <c r="C212" s="4">
-        <v>10561</v>
+        <v>9911</v>
       </c>
       <c r="D212" s="1">
         <v>30910</v>
@@ -3411,10 +3411,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="3">
-        <v>381094</v>
+        <v>357637</v>
       </c>
       <c r="C213" s="4">
-        <v>7183</v>
+        <v>6741</v>
       </c>
       <c r="D213" s="1">
         <v>30916</v>
@@ -3425,10 +3425,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="3">
-        <v>387252</v>
+        <v>363416</v>
       </c>
       <c r="C214" s="4">
-        <v>6158</v>
+        <v>5779</v>
       </c>
       <c r="D214" s="1">
         <v>30950</v>
@@ -3439,10 +3439,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3">
-        <v>395104</v>
+        <v>370785</v>
       </c>
       <c r="C215" s="4">
-        <v>7852</v>
+        <v>7369</v>
       </c>
       <c r="D215" s="1">
         <v>30999</v>
@@ -3453,10 +3453,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3">
-        <v>404888</v>
+        <v>379967</v>
       </c>
       <c r="C216" s="4">
-        <v>9784</v>
+        <v>9182</v>
       </c>
       <c r="D216" s="1">
         <v>31045</v>
@@ -3467,10 +3467,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="3">
-        <v>415481</v>
+        <v>389908</v>
       </c>
       <c r="C217" s="4">
-        <v>10593</v>
+        <v>9941</v>
       </c>
       <c r="D217" s="1">
         <v>31095</v>
@@ -3481,10 +3481,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="3">
-        <v>428696</v>
+        <v>402310</v>
       </c>
       <c r="C218" s="4">
-        <v>13215</v>
+        <v>12402</v>
       </c>
       <c r="D218" s="1">
         <v>31248</v>
@@ -3495,10 +3495,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="3">
-        <v>442194</v>
+        <v>414977</v>
       </c>
       <c r="C219" s="4">
-        <v>13498</v>
+        <v>12667</v>
       </c>
       <c r="D219" s="1">
         <v>31274</v>
@@ -3509,10 +3509,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="3">
-        <v>452763</v>
+        <v>424895</v>
       </c>
       <c r="C220" s="4">
-        <v>10569</v>
+        <v>9918</v>
       </c>
       <c r="D220" s="1">
         <v>31285</v>
@@ -3523,10 +3523,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="3">
-        <v>458061</v>
+        <v>429867</v>
       </c>
       <c r="C221" s="4">
-        <v>5298</v>
+        <v>4972</v>
       </c>
       <c r="D221" s="1">
         <v>31338</v>
@@ -3537,10 +3537,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="3">
-        <v>468069</v>
+        <v>439259</v>
       </c>
       <c r="C222" s="4">
-        <v>10008</v>
+        <v>9392</v>
       </c>
       <c r="D222" s="1">
         <v>31416</v>
@@ -3551,10 +3551,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3">
-        <v>481141</v>
+        <v>451526</v>
       </c>
       <c r="C223" s="4">
-        <v>13072</v>
+        <v>12267</v>
       </c>
       <c r="D223" s="1">
         <v>31459</v>
@@ -3565,10 +3565,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="3">
-        <v>497237</v>
+        <v>466631</v>
       </c>
       <c r="C224" s="4">
-        <v>16096</v>
+        <v>15105</v>
       </c>
       <c r="D224" s="1">
         <v>31511</v>
@@ -3579,10 +3579,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="3">
-        <v>513034</v>
+        <v>481456</v>
       </c>
       <c r="C225" s="4">
-        <v>15797</v>
+        <v>14825</v>
       </c>
       <c r="D225" s="1">
         <v>31661</v>
@@ -3593,10 +3593,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="3">
-        <v>527446</v>
+        <v>494981</v>
       </c>
       <c r="C226" s="4">
-        <v>14412</v>
+        <v>13525</v>
       </c>
       <c r="D226" s="1">
         <v>31700</v>
@@ -3607,10 +3607,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="3">
-        <v>538569</v>
+        <v>505419</v>
       </c>
       <c r="C227" s="4">
-        <v>11123</v>
+        <v>10438</v>
       </c>
       <c r="D227" s="1">
         <v>31727</v>
@@ -3621,10 +3621,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="3">
-        <v>542639</v>
+        <v>509238</v>
       </c>
       <c r="C228" s="4">
-        <v>4070</v>
+        <v>3819</v>
       </c>
       <c r="D228" s="1">
         <v>31808</v>
@@ -3635,10 +3635,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="3">
-        <v>550690</v>
+        <v>516793</v>
       </c>
       <c r="C229" s="4">
-        <v>8051</v>
+        <v>7555</v>
       </c>
       <c r="D229" s="1">
         <v>31893</v>
@@ -3649,10 +3649,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="3">
-        <v>563535</v>
+        <v>528847</v>
       </c>
       <c r="C230" s="4">
-        <v>12845</v>
+        <v>12054</v>
       </c>
       <c r="D230" s="1">
         <v>31956</v>
@@ -3663,10 +3663,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3">
-        <v>577505</v>
+        <v>541957</v>
       </c>
       <c r="C231" s="4">
-        <v>13970</v>
+        <v>13110</v>
       </c>
       <c r="D231" s="1">
         <v>32019</v>
@@ -3677,10 +3677,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="3">
-        <v>589653</v>
+        <v>553357</v>
       </c>
       <c r="C232" s="4">
-        <v>12148</v>
+        <v>11400</v>
       </c>
       <c r="D232" s="1">
         <v>32149</v>
@@ -3691,10 +3691,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3">
-        <v>606625</v>
+        <v>569284</v>
       </c>
       <c r="C233" s="4">
-        <v>16972</v>
+        <v>15927</v>
       </c>
       <c r="D233" s="1">
         <v>32198</v>
@@ -3705,10 +3705,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="3">
-        <v>619190</v>
+        <v>581076</v>
       </c>
       <c r="C234" s="4">
-        <v>12565</v>
+        <v>11792</v>
       </c>
       <c r="D234" s="1">
         <v>32230</v>
@@ -3719,10 +3719,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3">
-        <v>624274</v>
+        <v>585847</v>
       </c>
       <c r="C235" s="4">
-        <v>5084</v>
+        <v>4771</v>
       </c>
       <c r="D235" s="1">
         <v>32299</v>
@@ -3733,10 +3733,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3">
-        <v>634763</v>
+        <v>595690</v>
       </c>
       <c r="C236" s="4">
-        <v>10489</v>
+        <v>9843</v>
       </c>
       <c r="D236" s="1">
         <v>32365</v>
@@ -3747,10 +3747,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3">
-        <v>653509</v>
+        <v>613282</v>
       </c>
       <c r="C237" s="4">
-        <v>18746</v>
+        <v>17592</v>
       </c>
       <c r="D237" s="1">
         <v>32445</v>
@@ -3761,10 +3761,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3">
-        <v>671638</v>
+        <v>630295</v>
       </c>
       <c r="C238" s="4">
-        <v>18129</v>
+        <v>17013</v>
       </c>
       <c r="D238" s="1">
         <v>32521</v>
@@ -3775,10 +3775,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3">
-        <v>691977</v>
+        <v>649382</v>
       </c>
       <c r="C239" s="4">
-        <v>20339</v>
+        <v>19087</v>
       </c>
       <c r="D239" s="1">
         <v>32630</v>
@@ -3789,10 +3789,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="3">
-        <v>718873</v>
+        <v>674622</v>
       </c>
       <c r="C240" s="4">
-        <v>26896</v>
+        <v>25240</v>
       </c>
       <c r="D240" s="1">
         <v>32684</v>
@@ -3803,10 +3803,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3">
-        <v>734974</v>
+        <v>689732</v>
       </c>
       <c r="C241" s="4">
-        <v>16101</v>
+        <v>15110</v>
       </c>
       <c r="D241" s="1">
         <v>32730</v>
@@ -3817,10 +3817,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3">
-        <v>743479</v>
+        <v>697713</v>
       </c>
       <c r="C242" s="4">
-        <v>8505</v>
+        <v>7981</v>
       </c>
       <c r="D242" s="1">
         <v>32825</v>
@@ -3831,10 +3831,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="3">
-        <v>756472</v>
+        <v>709906</v>
       </c>
       <c r="C243" s="4">
-        <v>12993</v>
+        <v>12193</v>
       </c>
       <c r="D243" s="1">
         <v>32933</v>
@@ -3845,10 +3845,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="3">
-        <v>779063</v>
+        <v>731106</v>
       </c>
       <c r="C244" s="4">
-        <v>22591</v>
+        <v>21200</v>
       </c>
       <c r="D244" s="1">
         <v>33037</v>
@@ -3859,10 +3859,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="3">
-        <v>809684</v>
+        <v>759842</v>
       </c>
       <c r="C245" s="4">
-        <v>30621</v>
+        <v>28736</v>
       </c>
       <c r="D245" s="1">
         <v>33125</v>
@@ -3873,10 +3873,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="3">
-        <v>834770</v>
+        <v>783384</v>
       </c>
       <c r="C246" s="4">
-        <v>25086</v>
+        <v>23542</v>
       </c>
       <c r="D246" s="1">
         <v>33303</v>
@@ -3887,10 +3887,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="3">
-        <v>867197</v>
+        <v>813815</v>
       </c>
       <c r="C247" s="4">
-        <v>32427</v>
+        <v>30431</v>
       </c>
       <c r="D247" s="1">
         <v>33392</v>
@@ -3901,10 +3901,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="3">
-        <v>897034</v>
+        <v>841815</v>
       </c>
       <c r="C248" s="4">
-        <v>29837</v>
+        <v>28000</v>
       </c>
       <c r="D248" s="1">
         <v>33477</v>
@@ -3915,10 +3915,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="3">
-        <v>910277</v>
+        <v>854243</v>
       </c>
       <c r="C249" s="4">
-        <v>13243</v>
+        <v>12428</v>
       </c>
       <c r="D249" s="1">
         <v>33623</v>
@@ -3929,10 +3929,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="3">
-        <v>930745</v>
+        <v>873451</v>
       </c>
       <c r="C250" s="4">
-        <v>20468</v>
+        <v>19208</v>
       </c>
       <c r="D250" s="1">
         <v>33885</v>
@@ -3943,10 +3943,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="3">
-        <v>957421</v>
+        <v>898485</v>
       </c>
       <c r="C251" s="4">
-        <v>26676</v>
+        <v>25034</v>
       </c>
       <c r="D251" s="1">
         <v>34048</v>
@@ -3957,10 +3957,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="3">
-        <v>999043</v>
+        <v>937545</v>
       </c>
       <c r="C252" s="4">
-        <v>41622</v>
+        <v>39060</v>
       </c>
       <c r="D252" s="1">
         <v>34210</v>
@@ -3971,10 +3971,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="3">
-        <v>1041075</v>
+        <v>976990</v>
       </c>
       <c r="C253" s="4">
-        <v>42032</v>
+        <v>39445</v>
       </c>
       <c r="D253" s="1">
         <v>34508</v>
@@ -3985,10 +3985,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="3">
-        <v>1086497</v>
+        <v>1019616</v>
       </c>
       <c r="C254" s="4">
-        <v>45422</v>
+        <v>42626</v>
       </c>
       <c r="D254" s="1">
         <v>34645</v>
@@ -3999,10 +3999,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="3">
-        <v>1138507</v>
+        <v>1068424</v>
       </c>
       <c r="C255" s="4">
-        <v>52010</v>
+        <v>48808</v>
       </c>
       <c r="D255" s="1">
         <v>34761</v>
@@ -4013,10 +4013,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="3">
-        <v>1165278</v>
+        <v>1093547</v>
       </c>
       <c r="C256" s="4">
-        <v>26771</v>
+        <v>25123</v>
       </c>
       <c r="D256" s="1">
         <v>35018</v>
@@ -4027,10 +4027,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="3">
-        <v>1198695</v>
+        <v>1124907</v>
       </c>
       <c r="C257" s="4">
-        <v>33417</v>
+        <v>31360</v>
       </c>
       <c r="D257" s="1">
         <v>35541</v>
@@ -4041,10 +4041,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3">
-        <v>1235132</v>
+        <v>1159101</v>
       </c>
       <c r="C258" s="4">
-        <v>36437</v>
+        <v>34194</v>
       </c>
       <c r="D258" s="1">
         <v>35785</v>
@@ -4055,10 +4055,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="3">
-        <v>1282769</v>
+        <v>1203806</v>
       </c>
       <c r="C259" s="4">
-        <v>47637</v>
+        <v>44705</v>
       </c>
       <c r="D259" s="1">
         <v>36020</v>
@@ -4069,10 +4069,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3">
-        <v>1331984</v>
+        <v>1249991</v>
       </c>
       <c r="C260" s="4">
-        <v>49215</v>
+        <v>46185</v>
       </c>
       <c r="D260" s="1">
         <v>36565</v>
@@ -4083,10 +4083,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3">
-        <v>1367625</v>
+        <v>1283438</v>
       </c>
       <c r="C261" s="4">
-        <v>35641</v>
+        <v>33447</v>
       </c>
       <c r="D261" s="1">
         <v>36788</v>
@@ -4097,10 +4097,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="3">
-        <v>1415852</v>
+        <v>1328696</v>
       </c>
       <c r="C262" s="4">
-        <v>48227</v>
+        <v>45258</v>
       </c>
       <c r="D262" s="1">
         <v>37019</v>
@@ -4111,10 +4111,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="3">
-        <v>1470308</v>
+        <v>1379800</v>
       </c>
       <c r="C263" s="4">
-        <v>54456</v>
+        <v>51104</v>
       </c>
       <c r="D263" s="1">
         <v>37486</v>
@@ -4125,10 +4125,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3">
-        <v>1508576</v>
+        <v>1415712</v>
       </c>
       <c r="C264" s="4">
-        <v>38268</v>
+        <v>35912</v>
       </c>
       <c r="D264" s="1">
         <v>38392</v>
@@ -4139,10 +4139,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="3">
-        <v>1551072</v>
+        <v>1455592</v>
       </c>
       <c r="C265" s="4">
-        <v>42496</v>
+        <v>39880</v>
       </c>
       <c r="D265" s="1">
         <v>38829</v>
@@ -4153,10 +4153,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3">
-        <v>1611056</v>
+        <v>1511884</v>
       </c>
       <c r="C266" s="4">
-        <v>59984</v>
+        <v>56292</v>
       </c>
       <c r="D266" s="1">
         <v>39244</v>
@@ -4167,10 +4167,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="3">
-        <v>1673480</v>
+        <v>1570465</v>
       </c>
       <c r="C267" s="4">
-        <v>62424</v>
+        <v>58581</v>
       </c>
       <c r="D267" s="1">
         <v>40124</v>
@@ -4181,10 +4181,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3">
-        <v>1762270</v>
+        <v>1653789</v>
       </c>
       <c r="C268" s="4">
-        <v>88790</v>
+        <v>83324</v>
       </c>
       <c r="D268" s="1">
         <v>40480</v>
@@ -4195,10 +4195,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="3">
-        <v>1802826</v>
+        <v>1691848</v>
       </c>
       <c r="C269" s="4">
-        <v>40556</v>
+        <v>38059</v>
       </c>
       <c r="D269" s="1">
         <v>40802</v>
@@ -4209,10 +4209,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="3">
-        <v>1824918</v>
+        <v>1712580</v>
       </c>
       <c r="C270" s="4">
-        <v>22092</v>
+        <v>20732</v>
       </c>
       <c r="D270" s="1">
         <v>41350</v>
@@ -4223,10 +4223,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3">
-        <v>1849035</v>
+        <v>1735212</v>
       </c>
       <c r="C271" s="4">
-        <v>24117</v>
+        <v>22632</v>
       </c>
       <c r="D271" s="1">
         <v>42207</v>
@@ -4237,10 +4237,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="3">
-        <v>1886851</v>
+        <v>1770700</v>
       </c>
       <c r="C272" s="4">
-        <v>37816</v>
+        <v>35488</v>
       </c>
       <c r="D272" s="1">
         <v>42535</v>
@@ -4251,10 +4251,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="3">
-        <v>1921960</v>
+        <v>1803648</v>
       </c>
       <c r="C273" s="4">
-        <v>35109</v>
+        <v>32948</v>
       </c>
       <c r="D273" s="1">
         <v>42960</v>
@@ -4265,10 +4265,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="3">
-        <v>1947691</v>
+        <v>1827795</v>
       </c>
       <c r="C274" s="4">
-        <v>25731</v>
+        <v>24147</v>
       </c>
       <c r="D274" s="1">
         <v>43892</v>
@@ -4279,10 +4279,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="3">
-        <v>1981723</v>
+        <v>1859732</v>
       </c>
       <c r="C275" s="4">
-        <v>34032</v>
+        <v>31937</v>
       </c>
       <c r="D275" s="1">
         <v>44444</v>
@@ -4293,10 +4293,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="3">
-        <v>2010888</v>
+        <v>1887102</v>
       </c>
       <c r="C276" s="4">
-        <v>29165</v>
+        <v>27370</v>
       </c>
       <c r="D276" s="1">
         <v>44944</v>
@@ -4307,10 +4307,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="3">
-        <v>2022231</v>
+        <v>1897747</v>
       </c>
       <c r="C277" s="4">
-        <v>11343</v>
+        <v>10645</v>
       </c>
       <c r="D277" s="1">
         <v>45648</v>
@@ -4321,10 +4321,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="3">
-        <v>2036755</v>
+        <v>1911377</v>
       </c>
       <c r="C278" s="4">
-        <v>14524</v>
+        <v>13630</v>
       </c>
       <c r="D278" s="1">
         <v>46273</v>
@@ -4335,10 +4335,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3">
-        <v>2065138</v>
+        <v>1938013</v>
       </c>
       <c r="C279" s="4">
-        <v>28383</v>
+        <v>26636</v>
       </c>
       <c r="D279" s="1">
         <v>46950</v>
@@ -4349,10 +4349,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="3">
-        <v>2086288</v>
+        <v>1957861</v>
       </c>
       <c r="C280" s="4">
-        <v>21150</v>
+        <v>19848</v>
       </c>
       <c r="D280" s="1">
         <v>47631</v>
@@ -4363,10 +4363,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="3">
-        <v>2109170</v>
+        <v>1979334</v>
       </c>
       <c r="C281" s="4">
-        <v>22882</v>
+        <v>21473</v>
       </c>
       <c r="D281" s="1">
         <v>48265</v>
@@ -4377,10 +4377,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="3">
-        <v>2127051</v>
+        <v>1996114</v>
       </c>
       <c r="C282" s="4">
-        <v>17881</v>
+        <v>16780</v>
       </c>
       <c r="D282" s="1">
         <v>48655</v>
@@ -4391,10 +4391,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="3">
-        <v>2140208</v>
+        <v>2008461</v>
       </c>
       <c r="C283" s="4">
-        <v>13157</v>
+        <v>12347</v>
       </c>
       <c r="D283" s="1">
         <v>49007</v>
@@ -4405,10 +4405,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="3">
-        <v>2144660</v>
+        <v>2012639</v>
       </c>
       <c r="C284" s="4">
-        <v>4452</v>
+        <v>4178</v>
       </c>
       <c r="D284" s="1">
         <v>49645</v>
@@ -4419,10 +4419,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3">
-        <v>2153815</v>
+        <v>2021230</v>
       </c>
       <c r="C285" s="4">
-        <v>9155</v>
+        <v>8591</v>
       </c>
       <c r="D285" s="1">
         <v>50237</v>
@@ -4433,10 +4433,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="3">
-        <v>2170097</v>
+        <v>2036510</v>
       </c>
       <c r="C286" s="4">
-        <v>16282</v>
+        <v>15280</v>
       </c>
       <c r="D286" s="1">
         <v>50806</v>
@@ -4447,10 +4447,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="3">
-        <v>2183660</v>
+        <v>2049238</v>
       </c>
       <c r="C287" s="4">
-        <v>13563</v>
+        <v>12728</v>
       </c>
       <c r="D287" s="1">
         <v>51333</v>
@@ -4461,10 +4461,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="3">
-        <v>2196119</v>
+        <v>2060930</v>
       </c>
       <c r="C288" s="4">
-        <v>12459</v>
+        <v>11692</v>
       </c>
       <c r="D288" s="1">
         <v>51914</v>
@@ -4475,10 +4475,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="3">
-        <v>2208699</v>
+        <v>2072736</v>
       </c>
       <c r="C289" s="4">
-        <v>12580</v>
+        <v>11806</v>
       </c>
       <c r="D289" s="1">
         <v>52230</v>
@@ -4489,10 +4489,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="3">
-        <v>2218483</v>
+        <v>2081918</v>
       </c>
       <c r="C290" s="4">
-        <v>9784</v>
+        <v>9182</v>
       </c>
       <c r="D290" s="1">
         <v>52531</v>
@@ -4503,10 +4503,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="3">
-        <v>2222488</v>
+        <v>2085676</v>
       </c>
       <c r="C291" s="4">
-        <v>4005</v>
+        <v>3758</v>
       </c>
       <c r="D291" s="1">
         <v>53040</v>
@@ -4517,10 +4517,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="3">
-        <v>2230571</v>
+        <v>2093261</v>
       </c>
       <c r="C292" s="4">
-        <v>8083</v>
+        <v>7585</v>
       </c>
       <c r="D292" s="1">
         <v>53506</v>
@@ -4531,10 +4531,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="3">
-        <v>2244635</v>
+        <v>2106459</v>
       </c>
       <c r="C293" s="4">
-        <v>14064</v>
+        <v>13198</v>
       </c>
       <c r="D293" s="1">
         <v>53931</v>
@@ -4545,10 +4545,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3">
-        <v>2257331</v>
+        <v>2118373</v>
       </c>
       <c r="C294" s="4">
-        <v>12696</v>
+        <v>11914</v>
       </c>
       <c r="D294" s="1">
         <v>54370</v>
@@ -4559,10 +4559,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="3">
-        <v>2268552</v>
+        <v>2128903</v>
       </c>
       <c r="C295" s="4">
-        <v>11221</v>
+        <v>10530</v>
       </c>
       <c r="D295" s="1">
         <v>54767</v>
@@ -4573,10 +4573,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="3">
-        <v>2281475</v>
+        <v>2141030</v>
       </c>
       <c r="C296" s="4">
-        <v>12923</v>
+        <v>12127</v>
       </c>
       <c r="D296" s="1">
         <v>55094</v>
@@ -4587,10 +4587,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="3">
-        <v>2292497</v>
+        <v>2151374</v>
       </c>
       <c r="C297" s="4">
-        <v>11022</v>
+        <v>10344</v>
       </c>
       <c r="D297" s="1">
         <v>55381</v>
@@ -4601,10 +4601,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="3">
-        <v>2295908</v>
+        <v>2154575</v>
       </c>
       <c r="C298" s="4">
-        <v>3411</v>
+        <v>3201</v>
       </c>
       <c r="D298" s="1">
         <v>55861</v>
@@ -4615,10 +4615,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="3">
-        <v>2309621</v>
+        <v>2167444</v>
       </c>
       <c r="C299" s="4">
-        <v>13713</v>
+        <v>12869</v>
       </c>
       <c r="D299" s="1">
         <v>56352</v>
@@ -4629,10 +4629,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3">
-        <v>2324216</v>
+        <v>2181141</v>
       </c>
       <c r="C300" s="4">
-        <v>14595</v>
+        <v>13697</v>
       </c>
       <c r="D300" s="1">
         <v>56755</v>
@@ -4643,10 +4643,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3">
-        <v>2337966</v>
+        <v>2194045</v>
       </c>
       <c r="C301" s="4">
-        <v>13750</v>
+        <v>12904</v>
       </c>
       <c r="D301" s="1">
         <v>57155</v>
@@ -4657,10 +4657,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3">
-        <v>2351372</v>
+        <v>2206626</v>
       </c>
       <c r="C302" s="4">
-        <v>13406</v>
+        <v>12581</v>
       </c>
       <c r="D302" s="1">
         <v>57567</v>
@@ -4671,10 +4671,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3">
-        <v>2365319</v>
+        <v>2219714</v>
       </c>
       <c r="C303" s="4">
-        <v>13947</v>
+        <v>13088</v>
       </c>
       <c r="D303" s="1">
         <v>57881</v>
@@ -4685,10 +4685,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3">
-        <v>2376852</v>
+        <v>2230537</v>
       </c>
       <c r="C304" s="4">
-        <v>11533</v>
+        <v>10823</v>
       </c>
       <c r="D304" s="1">
         <v>58152</v>
@@ -4699,10 +4699,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3">
-        <v>2379915</v>
+        <v>2233411</v>
       </c>
       <c r="C305" s="4">
-        <v>3063</v>
+        <v>2874</v>
       </c>
       <c r="D305" s="1">
         <v>58644</v>
@@ -4713,10 +4713,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="3">
-        <v>2391447</v>
+        <v>2244233</v>
       </c>
       <c r="C306" s="4">
-        <v>11532</v>
+        <v>10822</v>
       </c>
       <c r="D306" s="1">
         <v>59072</v>
@@ -4727,10 +4727,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="3">
-        <v>2409062</v>
+        <v>2260764</v>
       </c>
       <c r="C307" s="4">
-        <v>17615</v>
+        <v>16531</v>
       </c>
       <c r="D307" s="1">
         <v>59479</v>
@@ -4741,10 +4741,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="3">
-        <v>2427316</v>
+        <v>2277894</v>
       </c>
       <c r="C308" s="4">
-        <v>18254</v>
+        <v>17130</v>
       </c>
       <c r="D308" s="1">
         <v>59855</v>
@@ -4755,10 +4755,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="3">
-        <v>2442990</v>
+        <v>2292603</v>
       </c>
       <c r="C309" s="4">
-        <v>15674</v>
+        <v>14709</v>
       </c>
       <c r="D309" s="1">
         <v>60229</v>
@@ -4769,10 +4769,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3">
-        <v>2460555</v>
+        <v>2309087</v>
       </c>
       <c r="C310" s="4">
-        <v>17565</v>
+        <v>16484</v>
       </c>
       <c r="D310" s="1">
         <v>60523</v>
@@ -4783,10 +4783,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="3">
-        <v>2473354</v>
+        <v>2321098</v>
       </c>
       <c r="C311" s="4">
-        <v>12799</v>
+        <v>12011</v>
       </c>
       <c r="D311" s="1">
         <v>60759</v>
@@ -4797,10 +4797,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3">
-        <v>2479151</v>
+        <v>2326538</v>
       </c>
       <c r="C312" s="4">
-        <v>5797</v>
+        <v>5440</v>
       </c>
       <c r="D312" s="1">
         <v>61215</v>
@@ -4811,10 +4811,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3">
-        <v>2490946</v>
+        <v>2337607</v>
       </c>
       <c r="C313" s="4">
-        <v>11795</v>
+        <v>11069</v>
       </c>
       <c r="D313" s="1">
         <v>61702</v>
@@ -4825,10 +4825,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="3">
-        <v>2505875</v>
+        <v>2351617</v>
       </c>
       <c r="C314" s="4">
-        <v>14929</v>
+        <v>14010</v>
       </c>
       <c r="D314" s="1">
         <v>62061</v>
@@ -4839,10 +4839,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="3">
-        <v>2527509</v>
+        <v>2371919</v>
       </c>
       <c r="C315" s="4">
-        <v>21634</v>
+        <v>20302</v>
       </c>
       <c r="D315" s="1">
         <v>62434</v>
@@ -4853,10 +4853,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3">
-        <v>2547771</v>
+        <v>2390934</v>
       </c>
       <c r="C316" s="4">
-        <v>20262</v>
+        <v>19015</v>
       </c>
       <c r="D316" s="1">
         <v>62676</v>
@@ -4867,10 +4867,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="3">
-        <v>2550864</v>
+        <v>2393837</v>
       </c>
       <c r="C317" s="4">
-        <v>3093</v>
+        <v>2903</v>
       </c>
       <c r="D317" s="1">
         <v>62906</v>
@@ -4881,10 +4881,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="3">
-        <v>2559686</v>
+        <v>2402116</v>
       </c>
       <c r="C318" s="4">
-        <v>8822</v>
+        <v>8279</v>
       </c>
       <c r="D318" s="1">
         <v>63163</v>
@@ -4895,10 +4895,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="3">
-        <v>2562646</v>
+        <v>2404894</v>
       </c>
       <c r="C319" s="4">
-        <v>2960</v>
+        <v>2778</v>
       </c>
       <c r="D319" s="1">
         <v>63610</v>
@@ -4909,10 +4909,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3">
-        <v>2574041</v>
+        <v>2415588</v>
       </c>
       <c r="C320" s="4">
-        <v>11395</v>
+        <v>10694</v>
       </c>
       <c r="D320" s="1">
         <v>64078</v>
@@ -4923,10 +4923,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="3">
-        <v>2600498</v>
+        <v>2440416</v>
       </c>
       <c r="C321" s="4">
-        <v>26457</v>
+        <v>24828</v>
       </c>
       <c r="D321" s="1">
         <v>64455</v>
@@ -4937,10 +4937,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="3">
-        <v>2620425</v>
+        <v>2459116</v>
       </c>
       <c r="C322" s="4">
-        <v>19927</v>
+        <v>18700</v>
       </c>
       <c r="D322" s="1">
         <v>64780</v>
@@ -4951,10 +4951,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="3">
-        <v>2639773</v>
+        <v>2477273</v>
       </c>
       <c r="C323" s="4">
-        <v>19348</v>
+        <v>18157</v>
       </c>
       <c r="D323" s="1">
         <v>64987</v>
@@ -4965,10 +4965,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="3">
-        <v>2643239</v>
+        <v>2480526</v>
       </c>
       <c r="C324" s="4">
-        <v>3466</v>
+        <v>3253</v>
       </c>
       <c r="D324" s="1">
         <v>65218</v>
@@ -4979,10 +4979,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="3">
-        <v>2655728</v>
+        <v>2492246</v>
       </c>
       <c r="C325" s="4">
-        <v>12489</v>
+        <v>11720</v>
       </c>
       <c r="D325" s="1">
         <v>65409</v>
@@ -4993,10 +4993,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="3">
-        <v>2659750</v>
+        <v>2496020</v>
       </c>
       <c r="C326" s="4">
-        <v>4022</v>
+        <v>3774</v>
       </c>
       <c r="D326" s="1">
         <v>65862</v>
@@ -5007,10 +5007,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="3">
-        <v>2680239</v>
+        <v>2515248</v>
       </c>
       <c r="C327" s="4">
-        <v>20489</v>
+        <v>19228</v>
       </c>
       <c r="D327" s="1">
         <v>66282</v>
@@ -5021,10 +5021,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="3">
-        <v>2705618</v>
+        <v>2539065</v>
       </c>
       <c r="C328" s="4">
-        <v>25379</v>
+        <v>23817</v>
       </c>
       <c r="D328" s="1">
         <v>66669</v>
@@ -5035,10 +5035,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3">
-        <v>2727321</v>
+        <v>2559432</v>
       </c>
       <c r="C329" s="4">
-        <v>21703</v>
+        <v>20367</v>
       </c>
       <c r="D329" s="1">
         <v>67050</v>
@@ -5049,10 +5049,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3">
-        <v>2747135</v>
+        <v>2578026</v>
       </c>
       <c r="C330" s="4">
-        <v>19814</v>
+        <v>18594</v>
       </c>
       <c r="D330" s="1">
         <v>67431</v>
@@ -5063,10 +5063,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="3">
-        <v>2767312</v>
+        <v>2596961</v>
       </c>
       <c r="C331" s="4">
-        <v>20177</v>
+        <v>18935</v>
       </c>
       <c r="D331" s="1">
         <v>67695</v>
@@ -5077,10 +5077,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="3">
-        <v>2783256</v>
+        <v>2611924</v>
       </c>
       <c r="C332" s="4">
-        <v>15944</v>
+        <v>14963</v>
       </c>
       <c r="D332" s="1">
         <v>67943</v>
@@ -5091,10 +5091,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="3">
-        <v>2786838</v>
+        <v>2615286</v>
       </c>
       <c r="C333" s="4">
-        <v>3582</v>
+        <v>3362</v>
       </c>
       <c r="D333" s="1">
         <v>68350</v>
@@ -5105,10 +5105,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="3">
-        <v>2806590</v>
+        <v>2633822</v>
       </c>
       <c r="C334" s="4">
-        <v>19752</v>
+        <v>18536</v>
       </c>
       <c r="D334" s="1">
         <v>68802</v>
@@ -5119,10 +5119,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="3">
-        <v>2830442</v>
+        <v>2656206</v>
       </c>
       <c r="C335" s="4">
-        <v>23852</v>
+        <v>22384</v>
       </c>
       <c r="D335" s="1">
         <v>69149</v>
@@ -5133,10 +5133,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="3">
-        <v>2851670</v>
+        <v>2676127</v>
       </c>
       <c r="C336" s="4">
-        <v>21228</v>
+        <v>19921</v>
       </c>
       <c r="D336" s="1">
         <v>69550</v>
@@ -5147,10 +5147,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="3">
-        <v>2872941</v>
+        <v>2696089</v>
       </c>
       <c r="C337" s="4">
-        <v>21271</v>
+        <v>19962</v>
       </c>
       <c r="D337" s="1">
         <v>69949</v>
@@ -5161,10 +5161,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="3">
-        <v>2894347</v>
+        <v>2716177</v>
       </c>
       <c r="C338" s="4">
-        <v>21406</v>
+        <v>20088</v>
       </c>
       <c r="D338" s="1">
         <v>70213</v>
@@ -5175,10 +5175,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3">
-        <v>2910989</v>
+        <v>2731795</v>
       </c>
       <c r="C339" s="4">
-        <v>16642</v>
+        <v>15618</v>
       </c>
       <c r="D339" s="1">
         <v>70426</v>
@@ -5189,10 +5189,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="3">
-        <v>2914725</v>
+        <v>2735301</v>
       </c>
       <c r="C340" s="4">
-        <v>3736</v>
+        <v>3506</v>
       </c>
       <c r="D340" s="1">
         <v>70901</v>
@@ -5203,10 +5203,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="3">
-        <v>2938333</v>
+        <v>2757456</v>
       </c>
       <c r="C341" s="4">
-        <v>23608</v>
+        <v>22155</v>
       </c>
       <c r="D341" s="1">
         <v>71342</v>
@@ -5217,10 +5217,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="3">
-        <v>2965117</v>
+        <v>2782591</v>
       </c>
       <c r="C342" s="4">
-        <v>26784</v>
+        <v>25135</v>
       </c>
       <c r="D342" s="1">
         <v>71762</v>
@@ -5231,10 +5231,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3">
-        <v>2987965</v>
+        <v>2804033</v>
       </c>
       <c r="C343" s="4">
-        <v>22848</v>
+        <v>21442</v>
       </c>
       <c r="D343" s="1">
         <v>72218</v>
@@ -5245,10 +5245,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="3">
-        <v>3011257</v>
+        <v>2825891</v>
       </c>
       <c r="C344" s="4">
-        <v>23292</v>
+        <v>21858</v>
       </c>
       <c r="D344" s="1">
         <v>72647</v>
@@ -5259,10 +5259,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="3">
-        <v>3035181</v>
+        <v>2848342</v>
       </c>
       <c r="C345" s="4">
-        <v>23924</v>
+        <v>22451</v>
       </c>
       <c r="D345" s="1">
         <v>72942</v>
@@ -5273,10 +5273,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="3">
-        <v>3053617</v>
+        <v>2865643</v>
       </c>
       <c r="C346" s="4">
-        <v>18436</v>
+        <v>17301</v>
       </c>
       <c r="D346" s="1">
         <v>73179</v>
@@ -5287,10 +5287,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="3">
-        <v>3057857</v>
+        <v>2869622</v>
       </c>
       <c r="C347" s="4">
-        <v>4240</v>
+        <v>3979</v>
       </c>
       <c r="D347" s="1">
         <v>73689</v>
@@ -5301,10 +5301,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="3">
-        <v>3079943</v>
+        <v>2890348</v>
       </c>
       <c r="C348" s="4">
-        <v>22086</v>
+        <v>20726</v>
       </c>
       <c r="D348" s="1">
         <v>74106</v>
@@ -5315,10 +5315,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3">
-        <v>3106859</v>
+        <v>2915607</v>
       </c>
       <c r="C349" s="4">
-        <v>26916</v>
+        <v>25259</v>
       </c>
       <c r="D349" s="1">
         <v>74611</v>
@@ -5329,10 +5329,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3">
-        <v>3130629</v>
+        <v>2937914</v>
       </c>
       <c r="C350" s="4">
-        <v>23770</v>
+        <v>22307</v>
       </c>
       <c r="D350" s="1">
         <v>75110</v>
@@ -5343,10 +5343,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="3">
-        <v>3153487</v>
+        <v>2959365</v>
       </c>
       <c r="C351" s="4">
-        <v>22858</v>
+        <v>21451</v>
       </c>
       <c r="D351" s="1">
         <v>75620</v>
@@ -5357,10 +5357,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3">
-        <v>3177879</v>
+        <v>2982255</v>
       </c>
       <c r="C352" s="4">
-        <v>24392</v>
+        <v>22890</v>
       </c>
       <c r="D352" s="1">
         <v>75942</v>
@@ -5371,10 +5371,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="3">
-        <v>3197114</v>
+        <v>3000306</v>
       </c>
       <c r="C353" s="4">
-        <v>19235</v>
+        <v>18051</v>
       </c>
       <c r="D353" s="1">
         <v>76217</v>
@@ -5385,10 +5385,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="3">
-        <v>3201461</v>
+        <v>3004385</v>
       </c>
       <c r="C354" s="4">
-        <v>4347</v>
+        <v>4079</v>
       </c>
       <c r="D354" s="1">
         <v>76753</v>
@@ -5399,10 +5399,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="3">
-        <v>3224798</v>
+        <v>3026285</v>
       </c>
       <c r="C355" s="4">
-        <v>23337</v>
+        <v>21900</v>
       </c>
       <c r="D355" s="1">
         <v>77238</v>
@@ -5413,10 +5413,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3">
-        <v>3251160</v>
+        <v>3051024</v>
       </c>
       <c r="C356" s="4">
-        <v>26362</v>
+        <v>24739</v>
       </c>
       <c r="D356" s="1">
         <v>77714</v>
@@ -5427,10 +5427,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3">
-        <v>3274608</v>
+        <v>3073029</v>
       </c>
       <c r="C357" s="4">
-        <v>23448</v>
+        <v>22005</v>
       </c>
       <c r="D357" s="1">
         <v>78190</v>
@@ -5441,10 +5441,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3">
-        <v>3296747</v>
+        <v>3093805</v>
       </c>
       <c r="C358" s="4">
-        <v>22139</v>
+        <v>20776</v>
       </c>
       <c r="D358" s="1">
         <v>78603</v>
@@ -5455,10 +5455,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="3">
-        <v>3317333</v>
+        <v>3113124</v>
       </c>
       <c r="C359" s="4">
-        <v>20586</v>
+        <v>19319</v>
       </c>
       <c r="D359" s="1">
         <v>78866</v>
@@ -5469,10 +5469,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="3">
-        <v>3337048</v>
+        <v>3131625</v>
       </c>
       <c r="C360" s="4">
-        <v>19715</v>
+        <v>18501</v>
       </c>
       <c r="D360" s="1">
         <v>79109</v>
@@ -5483,10 +5483,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="3">
-        <v>3341365</v>
+        <v>3135676</v>
       </c>
       <c r="C361" s="4">
-        <v>4317</v>
+        <v>4051</v>
       </c>
       <c r="D361" s="1">
         <v>79639</v>
@@ -5497,10 +5497,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="3">
-        <v>3360235</v>
+        <v>3153384</v>
       </c>
       <c r="C362" s="4">
-        <v>18870</v>
+        <v>17708</v>
       </c>
       <c r="D362" s="1">
         <v>80147</v>
@@ -5511,10 +5511,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="3">
-        <v>3385622</v>
+        <v>3177208</v>
       </c>
       <c r="C363" s="4">
-        <v>25387</v>
+        <v>23824</v>
       </c>
       <c r="D363" s="1">
         <v>80551</v>
@@ -5525,10 +5525,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3">
-        <v>3406685</v>
+        <v>3196974</v>
       </c>
       <c r="C364" s="4">
-        <v>21063</v>
+        <v>19766</v>
       </c>
       <c r="D364" s="1">
         <v>81019</v>
@@ -5539,10 +5539,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3">
-        <v>3427386</v>
+        <v>3216401</v>
       </c>
       <c r="C365" s="4">
-        <v>20701</v>
+        <v>19427</v>
       </c>
       <c r="D365" s="1">
         <v>81448</v>
@@ -5553,10 +5553,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3">
-        <v>3448617</v>
+        <v>3236325</v>
       </c>
       <c r="C366" s="4">
-        <v>21231</v>
+        <v>19924</v>
       </c>
       <c r="D366" s="1">
         <v>81705</v>
@@ -5567,10 +5567,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="3">
-        <v>3465163</v>
+        <v>3251852</v>
       </c>
       <c r="C367" s="4">
-        <v>16546</v>
+        <v>15527</v>
       </c>
       <c r="D367" s="1">
         <v>81931</v>
@@ -5581,10 +5581,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="3">
-        <v>3469539</v>
+        <v>3255959</v>
       </c>
       <c r="C368" s="4">
-        <v>4376</v>
+        <v>4107</v>
       </c>
       <c r="D368" s="1">
         <v>82402</v>
@@ -5595,10 +5595,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3">
-        <v>3489129</v>
+        <v>3274343</v>
       </c>
       <c r="C369" s="4">
-        <v>19590</v>
+        <v>18384</v>
       </c>
       <c r="D369" s="1">
         <v>82812</v>
@@ -5609,10 +5609,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="3">
-        <v>3514147</v>
+        <v>3297821</v>
       </c>
       <c r="C370" s="4">
-        <v>25018</v>
+        <v>23478</v>
       </c>
       <c r="D370" s="1">
         <v>83203</v>
@@ -5623,10 +5623,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="3">
-        <v>3536648</v>
+        <v>3318937</v>
       </c>
       <c r="C371" s="4">
-        <v>22501</v>
+        <v>21116</v>
       </c>
       <c r="D371" s="1">
         <v>83555</v>
@@ -5637,10 +5637,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="3">
-        <v>3560764</v>
+        <v>3341568</v>
       </c>
       <c r="C372" s="4">
-        <v>24116</v>
+        <v>22631</v>
       </c>
       <c r="D372" s="1">
         <v>83964</v>
@@ -5651,10 +5651,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3">
-        <v>3583135</v>
+        <v>3362562</v>
       </c>
       <c r="C373" s="4">
-        <v>22371</v>
+        <v>20994</v>
       </c>
       <c r="D373" s="1">
         <v>84177</v>
@@ -5665,10 +5665,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="3">
-        <v>3605181</v>
+        <v>3383251</v>
       </c>
       <c r="C374" s="4">
-        <v>22046</v>
+        <v>20689</v>
       </c>
       <c r="D374" s="1">
         <v>84340</v>
@@ -5679,10 +5679,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="3">
-        <v>3609827</v>
+        <v>3387611</v>
       </c>
       <c r="C375" s="4">
-        <v>4646</v>
+        <v>4360</v>
       </c>
       <c r="D375" s="1">
         <v>84703</v>
@@ -5693,10 +5693,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3">
-        <v>3629891</v>
+        <v>3406440</v>
       </c>
       <c r="C376" s="4">
-        <v>20064</v>
+        <v>18829</v>
       </c>
       <c r="D376" s="1">
         <v>85044</v>
@@ -5707,10 +5707,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="3">
-        <v>3661410</v>
+        <v>3436019</v>
       </c>
       <c r="C377" s="4">
-        <v>31519</v>
+        <v>29579</v>
       </c>
       <c r="D377" s="1">
         <v>85414</v>
@@ -5721,10 +5721,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3">
-        <v>3686813</v>
+        <v>3459858</v>
       </c>
       <c r="C378" s="4">
-        <v>25403</v>
+        <v>23839</v>
       </c>
       <c r="D378" s="1">
         <v>85768</v>
@@ -5735,10 +5735,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="3">
-        <v>3712020</v>
+        <v>3483513</v>
       </c>
       <c r="C379" s="4">
-        <v>25207</v>
+        <v>23655</v>
       </c>
       <c r="D379" s="1">
         <v>86147</v>
@@ -5749,10 +5749,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3">
-        <v>3736016</v>
+        <v>3506032</v>
       </c>
       <c r="C380" s="4">
-        <v>23996</v>
+        <v>22519</v>
       </c>
       <c r="D380" s="1">
         <v>86361</v>
@@ -5763,10 +5763,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="3">
-        <v>3755968</v>
+        <v>3524756</v>
       </c>
       <c r="C381" s="4">
-        <v>19952</v>
+        <v>18724</v>
       </c>
       <c r="D381" s="1">
         <v>86486</v>
@@ -5777,10 +5777,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3">
-        <v>3760671</v>
+        <v>3529169</v>
       </c>
       <c r="C382" s="4">
-        <v>4703</v>
+        <v>4413</v>
       </c>
       <c r="D382" s="1">
         <v>86890</v>
@@ -5791,10 +5791,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="3">
-        <v>3783528</v>
+        <v>3550619</v>
       </c>
       <c r="C383" s="4">
-        <v>22857</v>
+        <v>21450</v>
       </c>
       <c r="D383" s="1">
         <v>87220</v>
@@ -5805,10 +5805,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="3">
-        <v>3810316</v>
+        <v>3575758</v>
       </c>
       <c r="C384" s="4">
-        <v>26788</v>
+        <v>25139</v>
       </c>
       <c r="D384" s="1">
         <v>87609</v>
@@ -5819,10 +5819,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="3">
-        <v>3835595</v>
+        <v>3599481</v>
       </c>
       <c r="C385" s="4">
-        <v>25279</v>
+        <v>23723</v>
       </c>
       <c r="D385" s="1">
         <v>87969</v>
@@ -5833,10 +5833,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="3">
-        <v>3859102</v>
+        <v>3621541</v>
       </c>
       <c r="C386" s="4">
-        <v>23507</v>
+        <v>22060</v>
       </c>
       <c r="D386" s="1">
         <v>88274</v>
@@ -5847,10 +5847,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="3">
-        <v>3882408</v>
+        <v>3643412</v>
       </c>
       <c r="C387" s="4">
-        <v>23306</v>
+        <v>21871</v>
       </c>
       <c r="D387" s="1">
         <v>88461</v>
@@ -5861,10 +5861,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="3">
-        <v>3904233</v>
+        <v>3663894</v>
       </c>
       <c r="C388" s="4">
-        <v>21825</v>
+        <v>20482</v>
       </c>
       <c r="D388" s="1">
         <v>88608</v>
@@ -5875,10 +5875,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="3">
-        <v>3909560</v>
+        <v>3668893</v>
       </c>
       <c r="C389" s="4">
-        <v>5327</v>
+        <v>4999</v>
       </c>
       <c r="D389" s="1">
         <v>88985</v>
@@ -5889,10 +5889,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3">
-        <v>3932862</v>
+        <v>3690761</v>
       </c>
       <c r="C390" s="4">
-        <v>23302</v>
+        <v>21868</v>
       </c>
       <c r="D390" s="1">
         <v>89301</v>
@@ -5903,10 +5903,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3">
-        <v>3963165</v>
+        <v>3719199</v>
       </c>
       <c r="C391" s="4">
-        <v>30303</v>
+        <v>28438</v>
       </c>
       <c r="D391" s="1">
         <v>89596</v>
@@ -5917,10 +5917,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="3">
-        <v>3990331</v>
+        <v>3744693</v>
       </c>
       <c r="C392" s="4">
-        <v>27166</v>
+        <v>25494</v>
       </c>
       <c r="D392" s="1">
         <v>89892</v>
@@ -5931,10 +5931,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3">
-        <v>4015560</v>
+        <v>3768369</v>
       </c>
       <c r="C393" s="4">
-        <v>25229</v>
+        <v>23676</v>
       </c>
       <c r="D393" s="1">
         <v>90146</v>
@@ -5945,10 +5945,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3">
-        <v>4045319</v>
+        <v>3796296</v>
       </c>
       <c r="C394" s="4">
-        <v>29759</v>
+        <v>27927</v>
       </c>
       <c r="D394" s="1">
         <v>90338</v>
@@ -5959,10 +5959,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="3">
-        <v>4071662</v>
+        <v>3821017</v>
       </c>
       <c r="C395" s="4">
-        <v>26343</v>
+        <v>24721</v>
       </c>
       <c r="D395" s="1">
         <v>90475</v>
@@ -5973,10 +5973,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="3">
-        <v>4078133</v>
+        <v>3827090</v>
       </c>
       <c r="C396" s="4">
-        <v>6471</v>
+        <v>6073</v>
       </c>
       <c r="D396" s="1">
         <v>90832</v>
@@ -5987,10 +5987,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3">
-        <v>4108108</v>
+        <v>3855220</v>
       </c>
       <c r="C397" s="4">
-        <v>29975</v>
+        <v>28130</v>
       </c>
       <c r="D397" s="1">
         <v>91170</v>
@@ -6001,10 +6001,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3">
-        <v>4146609</v>
+        <v>3891351</v>
       </c>
       <c r="C398" s="4">
-        <v>38501</v>
+        <v>36131</v>
       </c>
       <c r="D398" s="1">
         <v>91470</v>
@@ -6015,10 +6015,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="3">
-        <v>4181607</v>
+        <v>3924195</v>
       </c>
       <c r="C399" s="4">
-        <v>34998</v>
+        <v>32844</v>
       </c>
       <c r="D399" s="1">
         <v>91797</v>
@@ -6029,10 +6029,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="3">
-        <v>4216677</v>
+        <v>3957106</v>
       </c>
       <c r="C400" s="4">
-        <v>35070</v>
+        <v>32911</v>
       </c>
       <c r="D400" s="1">
         <v>92159</v>
@@ -6043,10 +6043,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="3">
-        <v>4252022</v>
+        <v>3990275</v>
       </c>
       <c r="C401" s="4">
-        <v>35345</v>
+        <v>33169</v>
       </c>
       <c r="D401" s="1">
         <v>92403</v>
@@ -6057,10 +6057,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="3">
-        <v>4282603</v>
+        <v>4018974</v>
       </c>
       <c r="C402" s="4">
-        <v>30581</v>
+        <v>28699</v>
       </c>
       <c r="D402" s="1">
         <v>92573</v>
@@ -6071,10 +6071,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="3">
-        <v>4320175</v>
+        <v>4054233</v>
       </c>
       <c r="C403" s="4">
-        <v>37572</v>
+        <v>35259</v>
       </c>
       <c r="D403" s="1">
         <v>92975</v>
@@ -6085,10 +6085,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="3">
-        <v>4345057</v>
+        <v>4077583</v>
       </c>
       <c r="C404" s="4">
-        <v>24882</v>
+        <v>23350</v>
       </c>
       <c r="D404" s="1">
         <v>93322</v>
@@ -6099,10 +6099,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="3">
-        <v>4378446</v>
+        <v>4108917</v>
       </c>
       <c r="C405" s="4">
-        <v>33389</v>
+        <v>31334</v>
       </c>
       <c r="D405" s="1">
         <v>93627</v>
@@ -6113,10 +6113,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3">
-        <v>4424087</v>
+        <v>4151748</v>
       </c>
       <c r="C406" s="4">
-        <v>45641</v>
+        <v>42831</v>
       </c>
       <c r="D406" s="1">
         <v>93912</v>
@@ -6127,10 +6127,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="3">
-        <v>4465956</v>
+        <v>4191040</v>
       </c>
       <c r="C407" s="4">
-        <v>41869</v>
+        <v>39292</v>
       </c>
       <c r="D407" s="1">
         <v>94275</v>
@@ -6141,10 +6141,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="3">
-        <v>4508575</v>
+        <v>4231035</v>
       </c>
       <c r="C408" s="4">
-        <v>42619</v>
+        <v>39995</v>
       </c>
       <c r="D408" s="1">
         <v>94476</v>
@@ -6155,10 +6155,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3">
-        <v>4545589</v>
+        <v>4265771</v>
       </c>
       <c r="C409" s="4">
-        <v>37014</v>
+        <v>34736</v>
       </c>
       <c r="D409" s="1">
         <v>94618</v>
@@ -6169,10 +6169,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3">
-        <v>4574193</v>
+        <v>4292614</v>
       </c>
       <c r="C410" s="4">
-        <v>28604</v>
+        <v>26843</v>
       </c>
       <c r="D410" s="1">
         <v>94989</v>
@@ -6183,10 +6183,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="3">
-        <v>4602516</v>
+        <v>4319194</v>
       </c>
       <c r="C411" s="4">
-        <v>28323</v>
+        <v>26580</v>
       </c>
       <c r="D411" s="1">
         <v>95337</v>
@@ -6197,10 +6197,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="3">
-        <v>4644423</v>
+        <v>4358521</v>
       </c>
       <c r="C412" s="4">
-        <v>41907</v>
+        <v>39327</v>
       </c>
       <c r="D412" s="1">
         <v>95662</v>
@@ -6211,10 +6211,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3">
-        <v>4695082</v>
+        <v>4406062</v>
       </c>
       <c r="C413" s="4">
-        <v>50659</v>
+        <v>47541</v>
       </c>
       <c r="D413" s="1">
         <v>95976</v>
@@ -6225,10 +6225,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="3">
-        <v>4741759</v>
+        <v>4449866</v>
       </c>
       <c r="C414" s="4">
-        <v>46677</v>
+        <v>43804</v>
       </c>
       <c r="D414" s="1">
         <v>96280</v>
@@ -6239,10 +6239,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3">
-        <v>4761548</v>
+        <v>4468437</v>
       </c>
       <c r="C415" s="4">
-        <v>19789</v>
+        <v>18571</v>
       </c>
       <c r="D415" s="1">
         <v>96493</v>
@@ -6253,10 +6253,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="3">
-        <v>4822470</v>
+        <v>4525609</v>
       </c>
       <c r="C416" s="4">
-        <v>60922</v>
+        <v>57172</v>
       </c>
       <c r="D416" s="1">
         <v>96678</v>
@@ -6267,10 +6267,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3">
-        <v>4834805</v>
+        <v>4537185</v>
       </c>
       <c r="C417" s="4">
-        <v>12335</v>
+        <v>11576</v>
       </c>
       <c r="D417" s="1">
         <v>96875</v>
@@ -6281,10 +6281,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3">
-        <v>4892604</v>
+        <v>4591426</v>
       </c>
       <c r="C418" s="4">
-        <v>57799</v>
+        <v>54241</v>
       </c>
       <c r="D418" s="1">
         <v>97289</v>
@@ -6295,10 +6295,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3">
-        <v>4923389</v>
+        <v>4620316</v>
       </c>
       <c r="C419" s="4">
-        <v>30785</v>
+        <v>28890</v>
       </c>
       <c r="D419" s="1">
         <v>97720</v>
@@ -6309,10 +6309,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="3">
-        <v>4939258</v>
+        <v>4635208</v>
       </c>
       <c r="C420" s="4">
-        <v>15869</v>
+        <v>14892</v>
       </c>
       <c r="D420" s="1">
         <v>98094</v>
@@ -6323,10 +6323,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3">
-        <v>4980501</v>
+        <v>4673912</v>
       </c>
       <c r="C421" s="4">
-        <v>41243</v>
+        <v>38704</v>
       </c>
       <c r="D421" s="1">
         <v>98395</v>
@@ -6337,10 +6337,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3">
-        <v>5023785</v>
+        <v>4714532</v>
       </c>
       <c r="C422" s="4">
-        <v>43284</v>
+        <v>40620</v>
       </c>
       <c r="D422" s="1">
         <v>98574</v>
@@ -6351,10 +6351,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="3">
-        <v>5058680</v>
+        <v>4747279</v>
       </c>
       <c r="C423" s="4">
-        <v>34895</v>
+        <v>32747</v>
       </c>
       <c r="D423" s="1">
         <v>98750</v>
@@ -6365,10 +6365,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3">
-        <v>5067216</v>
+        <v>4755290</v>
       </c>
       <c r="C424" s="4">
-        <v>8536</v>
+        <v>8011</v>
       </c>
       <c r="D424" s="1">
         <v>99135</v>
@@ -6379,10 +6379,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3">
-        <v>5106329</v>
+        <v>4791995</v>
       </c>
       <c r="C425" s="4">
-        <v>39113</v>
+        <v>36705</v>
       </c>
       <c r="D425" s="1">
         <v>99486</v>
@@ -6393,10 +6393,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="3">
-        <v>5149834</v>
+        <v>4832822</v>
       </c>
       <c r="C426" s="4">
-        <v>43505</v>
+        <v>40827</v>
       </c>
       <c r="D426" s="1">
         <v>99789</v>
@@ -6407,10 +6407,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="3">
-        <v>5187879</v>
+        <v>4868525</v>
       </c>
       <c r="C427" s="4">
-        <v>38045</v>
+        <v>35703</v>
       </c>
       <c r="D427" s="1">
         <v>100091</v>
@@ -6421,10 +6421,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3">
-        <v>5224321</v>
+        <v>4902724</v>
       </c>
       <c r="C428" s="4">
-        <v>36442</v>
+        <v>34199</v>
       </c>
       <c r="D428" s="1">
         <v>100404</v>
@@ -6435,10 +6435,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="3">
-        <v>5260182</v>
+        <v>4936377</v>
       </c>
       <c r="C429" s="4">
-        <v>35861</v>
+        <v>33653</v>
       </c>
       <c r="D429" s="1">
         <v>100593</v>
@@ -6449,10 +6449,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3">
-        <v>5289526</v>
+        <v>4963915</v>
       </c>
       <c r="C430" s="4">
-        <v>29344</v>
+        <v>27538</v>
       </c>
       <c r="D430" s="1">
         <v>100733</v>
@@ -6463,10 +6463,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3">
-        <v>5296822</v>
+        <v>4970762</v>
       </c>
       <c r="C431" s="4">
-        <v>7296</v>
+        <v>6847</v>
       </c>
       <c r="D431" s="1">
         <v>101222</v>
@@ -6477,10 +6477,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3">
-        <v>5339320</v>
+        <v>5010644</v>
       </c>
       <c r="C432" s="4">
-        <v>42498</v>
+        <v>39882</v>
       </c>
       <c r="D432" s="1">
         <v>101568</v>
@@ -6491,10 +6491,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="3">
-        <v>5374288</v>
+        <v>5043459</v>
       </c>
       <c r="C433" s="4">
-        <v>34968</v>
+        <v>32815</v>
       </c>
       <c r="D433" s="1">
         <v>101881</v>
@@ -6505,10 +6505,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="3">
-        <v>5408606</v>
+        <v>5075664</v>
       </c>
       <c r="C434" s="4">
-        <v>34318</v>
+        <v>32205</v>
       </c>
       <c r="D434" s="1">
         <v>102164</v>
@@ -6519,10 +6519,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="3">
-        <v>5440946</v>
+        <v>5106013</v>
       </c>
       <c r="C435" s="4">
-        <v>32340</v>
+        <v>30349</v>
       </c>
       <c r="D435" s="1">
         <v>102496</v>
@@ -6533,10 +6533,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="3">
-        <v>5473579</v>
+        <v>5136637</v>
       </c>
       <c r="C436" s="4">
-        <v>32633</v>
+        <v>30624</v>
       </c>
       <c r="D436" s="1">
         <v>102713</v>
@@ -6547,10 +6547,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="3">
-        <v>5498044</v>
+        <v>5159596</v>
       </c>
       <c r="C437" s="4">
-        <v>24465</v>
+        <v>22959</v>
       </c>
       <c r="D437" s="1">
         <v>102865</v>
@@ -6561,10 +6561,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="3">
-        <v>5503996</v>
+        <v>5165182</v>
       </c>
       <c r="C438" s="4">
-        <v>5952</v>
+        <v>5586</v>
       </c>
       <c r="D438" s="1">
         <v>103270</v>
@@ -6575,10 +6575,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="3">
-        <v>5534313</v>
+        <v>5193633</v>
       </c>
       <c r="C439" s="4">
-        <v>30317</v>
+        <v>28451</v>
       </c>
       <c r="D439" s="1">
         <v>103603</v>
@@ -6589,10 +6589,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="3">
-        <v>5565852</v>
+        <v>5223231</v>
       </c>
       <c r="C440" s="4">
-        <v>31539</v>
+        <v>29598</v>
       </c>
       <c r="D440" s="1">
         <v>103925</v>
@@ -6603,10 +6603,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="3">
-        <v>5592390</v>
+        <v>5248135</v>
       </c>
       <c r="C441" s="4">
-        <v>26538</v>
+        <v>24904</v>
       </c>
       <c r="D441" s="1">
         <v>104238</v>
@@ -6617,10 +6617,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="3">
-        <v>5616689</v>
+        <v>5270938</v>
       </c>
       <c r="C442" s="4">
-        <v>24299</v>
+        <v>22803</v>
       </c>
       <c r="D442" s="1">
         <v>104514</v>
@@ -6631,13 +6631,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="3">
-        <v>5642359</v>
+        <v>5295028</v>
       </c>
       <c r="C443" s="4">
-        <v>25670</v>
+        <v>24090</v>
       </c>
       <c r="D443" s="1">
-        <v>104706</v>
+        <v>104709</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6645,13 +6645,377 @@
         <v>443</v>
       </c>
       <c r="B444" s="3">
-        <v>5652247</v>
+        <v>5304307</v>
       </c>
       <c r="C444" s="4">
-        <v>9888</v>
+        <v>9279</v>
       </c>
       <c r="D444" s="1">
-        <v>104819</v>
+        <v>104825</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="3">
+        <v>5307836</v>
+      </c>
+      <c r="C445" s="4">
+        <v>3529</v>
+      </c>
+      <c r="D445" s="1">
+        <v>105140</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="3">
+        <v>5330707</v>
+      </c>
+      <c r="C446" s="4">
+        <v>22871</v>
+      </c>
+      <c r="D446" s="1">
+        <v>105387</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="3">
+        <v>5355107</v>
+      </c>
+      <c r="C447" s="4">
+        <v>24400</v>
+      </c>
+      <c r="D447" s="1">
+        <v>105639</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="3">
+        <v>5375482</v>
+      </c>
+      <c r="C448" s="4">
+        <v>20375</v>
+      </c>
+      <c r="D448" s="1">
+        <v>105866</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="3">
+        <v>5393429</v>
+      </c>
+      <c r="C449" s="4">
+        <v>17947</v>
+      </c>
+      <c r="D449" s="1">
+        <v>106101</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="3">
+        <v>5412897</v>
+      </c>
+      <c r="C450" s="4">
+        <v>19468</v>
+      </c>
+      <c r="D450" s="1">
+        <v>106280</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="3">
+        <v>5421463</v>
+      </c>
+      <c r="C451" s="4">
+        <v>8566</v>
+      </c>
+      <c r="D451" s="1">
+        <v>106399</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="3">
+        <v>5424552</v>
+      </c>
+      <c r="C452" s="4">
+        <v>3089</v>
+      </c>
+      <c r="D452" s="1">
+        <v>106695</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="3">
+        <v>5443125</v>
+      </c>
+      <c r="C453" s="4">
+        <v>18573</v>
+      </c>
+      <c r="D453" s="1">
+        <v>106935</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="3">
+        <v>5463300</v>
+      </c>
+      <c r="C454" s="4">
+        <v>20175</v>
+      </c>
+      <c r="D454" s="1">
+        <v>107119</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="3">
+        <v>5481563</v>
+      </c>
+      <c r="C455" s="4">
+        <v>18263</v>
+      </c>
+      <c r="D455" s="1">
+        <v>107250</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="3">
+        <v>5488156</v>
+      </c>
+      <c r="C456" s="4">
+        <v>6593</v>
+      </c>
+      <c r="D456" s="1">
+        <v>107423</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="3">
+        <v>5502875</v>
+      </c>
+      <c r="C457" s="4">
+        <v>14719</v>
+      </c>
+      <c r="D457" s="1">
+        <v>107545</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="3">
+        <v>5515964</v>
+      </c>
+      <c r="C458" s="4">
+        <v>13089</v>
+      </c>
+      <c r="D458" s="1">
+        <v>107636</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="3">
+        <v>5519108</v>
+      </c>
+      <c r="C459" s="4">
+        <v>3144</v>
+      </c>
+      <c r="D459" s="1">
+        <v>107842</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="3">
+        <v>5535259</v>
+      </c>
+      <c r="C460" s="4">
+        <v>16151</v>
+      </c>
+      <c r="D460" s="1">
+        <v>108040</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="3">
+        <v>5553136</v>
+      </c>
+      <c r="C461" s="4">
+        <v>17877</v>
+      </c>
+      <c r="D461" s="1">
+        <v>108186</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="3">
+        <v>5568551</v>
+      </c>
+      <c r="C462" s="4">
+        <v>15415</v>
+      </c>
+      <c r="D462" s="1">
+        <v>108324</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="3">
+        <v>5581351</v>
+      </c>
+      <c r="C463" s="4">
+        <v>12800</v>
+      </c>
+      <c r="D463" s="1">
+        <v>108437</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="3">
+        <v>5593962</v>
+      </c>
+      <c r="C464" s="4">
+        <v>12611</v>
+      </c>
+      <c r="D464" s="1">
+        <v>108532</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="3">
+        <v>5603666</v>
+      </c>
+      <c r="C465" s="4">
+        <v>9704</v>
+      </c>
+      <c r="D465" s="1">
+        <v>108608</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="3">
+        <v>5605895</v>
+      </c>
+      <c r="C466" s="4">
+        <v>2229</v>
+      </c>
+      <c r="D466" s="1">
+        <v>108676</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="3">
+        <v>5609050</v>
+      </c>
+      <c r="C467" s="4">
+        <v>3155</v>
+      </c>
+      <c r="D467" s="1">
+        <v>108879</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="3">
+        <v>5621696</v>
+      </c>
+      <c r="C468" s="4">
+        <v>12646</v>
+      </c>
+      <c r="D468" s="1">
+        <v>109032</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="3">
+        <v>5635629</v>
+      </c>
+      <c r="C469" s="4">
+        <v>13933</v>
+      </c>
+      <c r="D469" s="1">
+        <v>109183</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="3">
+        <v>5646897</v>
+      </c>
+      <c r="C470" s="4">
+        <v>11268</v>
+      </c>
+      <c r="D470" s="1">
+        <v>109290</v>
       </c>
     </row>
   </sheetData>
